--- a/30 設計/20 プログラム設計/クラス設計/backend/original/OrgAttendance.xlsx
+++ b/30 設計/20 プログラム設計/クラス設計/backend/original/OrgAttendance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-30" windowWidth="13980" windowHeight="12900"/>
+    <workbookView xWindow="14385" yWindow="-30" windowWidth="13980" windowHeight="12900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="253">
   <si>
     <t>システム名称</t>
     <phoneticPr fontId="5"/>
@@ -1383,6 +1383,29 @@
     <rPh sb="6" eb="7">
       <t>アタイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>isExist</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>idプロパティ &gt; 0 の場合</t>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>trueをReturn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>falseをReturn</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1859,6 +1882,36 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1880,36 +1933,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2511,7 +2534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
@@ -5381,2791 +5404,3031 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="60" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="61" t="str">
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="73" t="str">
         <f>IF(表紙!AL43&lt;&gt;"",表紙!AL43,"")</f>
         <v>connectyee</v>
       </c>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
     </row>
     <row r="2" spans="1:52">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="60" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="62">
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="74">
         <f>IF(表紙!AL45&lt;&gt;"",表紙!AL45,"")</f>
         <v>2</v>
       </c>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="63" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="63" t="s">
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="63" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="65"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="65"/>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="65"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="66">
+      <c r="A5" s="67">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68">
         <v>42293</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69" t="s">
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="70"/>
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="70"/>
+      <c r="AS5" s="70"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="70"/>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="70"/>
+      <c r="AX5" s="70"/>
+      <c r="AY5" s="70"/>
+      <c r="AZ5" s="70"/>
     </row>
     <row r="6" spans="1:52">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="73"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73"/>
-      <c r="AH6" s="73"/>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="73"/>
-      <c r="AL6" s="73"/>
-      <c r="AM6" s="73"/>
-      <c r="AN6" s="73"/>
-      <c r="AO6" s="73"/>
-      <c r="AP6" s="73"/>
-      <c r="AQ6" s="73"/>
-      <c r="AR6" s="73"/>
-      <c r="AS6" s="73"/>
-      <c r="AT6" s="73"/>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="73"/>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="73"/>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="73"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="62"/>
+      <c r="AY6" s="62"/>
+      <c r="AZ6" s="62"/>
     </row>
     <row r="7" spans="1:52">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="73"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="62"/>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="62"/>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="62"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="62"/>
+      <c r="AY10" s="62"/>
+      <c r="AZ10" s="62"/>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="73"/>
-      <c r="AP11" s="73"/>
-      <c r="AQ11" s="73"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="73"/>
-      <c r="AX11" s="73"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="73"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="62"/>
+      <c r="AL11" s="62"/>
+      <c r="AM11" s="62"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="62"/>
+      <c r="AY11" s="62"/>
+      <c r="AZ11" s="62"/>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="73"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="62"/>
+      <c r="AL12" s="62"/>
+      <c r="AM12" s="62"/>
+      <c r="AN12" s="62"/>
+      <c r="AO12" s="62"/>
+      <c r="AP12" s="62"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="62"/>
+      <c r="AS12" s="62"/>
+      <c r="AT12" s="62"/>
+      <c r="AU12" s="62"/>
+      <c r="AV12" s="62"/>
+      <c r="AW12" s="62"/>
+      <c r="AX12" s="62"/>
+      <c r="AY12" s="62"/>
+      <c r="AZ12" s="62"/>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="73"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="62"/>
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="62"/>
+      <c r="AP13" s="62"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="62"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="62"/>
+      <c r="AV13" s="62"/>
+      <c r="AW13" s="62"/>
+      <c r="AX13" s="62"/>
+      <c r="AY13" s="62"/>
+      <c r="AZ13" s="62"/>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="73"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="73"/>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="73"/>
-      <c r="AW14" s="73"/>
-      <c r="AX14" s="73"/>
-      <c r="AY14" s="73"/>
-      <c r="AZ14" s="73"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="73"/>
-      <c r="AH15" s="73"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="73"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="73"/>
-      <c r="AQ15" s="73"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="73"/>
-      <c r="AX15" s="73"/>
-      <c r="AY15" s="73"/>
-      <c r="AZ15" s="73"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="62"/>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="62"/>
+      <c r="AZ16" s="62"/>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="62"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="62"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="62"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="62"/>
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="62"/>
+      <c r="AY17" s="62"/>
+      <c r="AZ17" s="62"/>
     </row>
     <row r="18" spans="1:52">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62"/>
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="62"/>
+      <c r="AZ18" s="62"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="62"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="62"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="62"/>
+      <c r="AX20" s="62"/>
+      <c r="AY20" s="62"/>
+      <c r="AZ20" s="62"/>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="73"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="73"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="73"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="73"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
-      <c r="AO21" s="73"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="73"/>
-      <c r="AX21" s="73"/>
-      <c r="AY21" s="73"/>
-      <c r="AZ21" s="73"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="62"/>
+      <c r="AX21" s="62"/>
+      <c r="AY21" s="62"/>
+      <c r="AZ21" s="62"/>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="73"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="73"/>
-      <c r="AY22" s="73"/>
-      <c r="AZ22" s="73"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="62"/>
+      <c r="AX22" s="62"/>
+      <c r="AY22" s="62"/>
+      <c r="AZ22" s="62"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="73"/>
-      <c r="AO23" s="73"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="73"/>
-      <c r="AX23" s="73"/>
-      <c r="AY23" s="73"/>
-      <c r="AZ23" s="73"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="62"/>
+      <c r="AW23" s="62"/>
+      <c r="AX23" s="62"/>
+      <c r="AY23" s="62"/>
+      <c r="AZ23" s="62"/>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
-      <c r="AY24" s="73"/>
-      <c r="AZ24" s="73"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="62"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="62"/>
+      <c r="AT24" s="62"/>
+      <c r="AU24" s="62"/>
+      <c r="AV24" s="62"/>
+      <c r="AW24" s="62"/>
+      <c r="AX24" s="62"/>
+      <c r="AY24" s="62"/>
+      <c r="AZ24" s="62"/>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="73"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="73"/>
-      <c r="AK25" s="73"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="73"/>
-      <c r="AN25" s="73"/>
-      <c r="AO25" s="73"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="73"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="73"/>
-      <c r="AX25" s="73"/>
-      <c r="AY25" s="73"/>
-      <c r="AZ25" s="73"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="62"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="62"/>
+      <c r="AV25" s="62"/>
+      <c r="AW25" s="62"/>
+      <c r="AX25" s="62"/>
+      <c r="AY25" s="62"/>
+      <c r="AZ25" s="62"/>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="73"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="73"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="73"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="73"/>
-      <c r="AN26" s="73"/>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="73"/>
-      <c r="AX26" s="73"/>
-      <c r="AY26" s="73"/>
-      <c r="AZ26" s="73"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="62"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="62"/>
+      <c r="AV26" s="62"/>
+      <c r="AW26" s="62"/>
+      <c r="AX26" s="62"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="62"/>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="73"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="73"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="73"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="73"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="73"/>
-      <c r="AX27" s="73"/>
-      <c r="AY27" s="73"/>
-      <c r="AZ27" s="73"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="62"/>
+      <c r="AY27" s="62"/>
+      <c r="AZ27" s="62"/>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="73"/>
-      <c r="AY28" s="73"/>
-      <c r="AZ28" s="73"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="62"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="62"/>
+      <c r="AM28" s="62"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="62"/>
+      <c r="AT28" s="62"/>
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="62"/>
+      <c r="AW28" s="62"/>
+      <c r="AX28" s="62"/>
+      <c r="AY28" s="62"/>
+      <c r="AZ28" s="62"/>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="73"/>
-      <c r="AZ29" s="73"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="62"/>
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="62"/>
+      <c r="AW29" s="62"/>
+      <c r="AX29" s="62"/>
+      <c r="AY29" s="62"/>
+      <c r="AZ29" s="62"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="73"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="73"/>
-      <c r="AG30" s="73"/>
-      <c r="AH30" s="73"/>
-      <c r="AI30" s="73"/>
-      <c r="AJ30" s="73"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="73"/>
-      <c r="AM30" s="73"/>
-      <c r="AN30" s="73"/>
-      <c r="AO30" s="73"/>
-      <c r="AP30" s="73"/>
-      <c r="AQ30" s="73"/>
-      <c r="AR30" s="73"/>
-      <c r="AS30" s="73"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="73"/>
-      <c r="AV30" s="73"/>
-      <c r="AW30" s="73"/>
-      <c r="AX30" s="73"/>
-      <c r="AY30" s="73"/>
-      <c r="AZ30" s="73"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="62"/>
+      <c r="AM30" s="62"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="62"/>
+      <c r="AT30" s="62"/>
+      <c r="AU30" s="62"/>
+      <c r="AV30" s="62"/>
+      <c r="AW30" s="62"/>
+      <c r="AX30" s="62"/>
+      <c r="AY30" s="62"/>
+      <c r="AZ30" s="62"/>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="73"/>
-      <c r="AC31" s="73"/>
-      <c r="AD31" s="73"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="73"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="73"/>
-      <c r="AN31" s="73"/>
-      <c r="AO31" s="73"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="73"/>
-      <c r="AR31" s="73"/>
-      <c r="AS31" s="73"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="73"/>
-      <c r="AV31" s="73"/>
-      <c r="AW31" s="73"/>
-      <c r="AX31" s="73"/>
-      <c r="AY31" s="73"/>
-      <c r="AZ31" s="73"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="62"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="62"/>
+      <c r="AL31" s="62"/>
+      <c r="AM31" s="62"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="62"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="62"/>
+      <c r="AX31" s="62"/>
+      <c r="AY31" s="62"/>
+      <c r="AZ31" s="62"/>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="73"/>
-      <c r="AN32" s="73"/>
-      <c r="AO32" s="73"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="73"/>
-      <c r="AR32" s="73"/>
-      <c r="AS32" s="73"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="73"/>
-      <c r="AV32" s="73"/>
-      <c r="AW32" s="73"/>
-      <c r="AX32" s="73"/>
-      <c r="AY32" s="73"/>
-      <c r="AZ32" s="73"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="62"/>
+      <c r="AJ32" s="62"/>
+      <c r="AK32" s="62"/>
+      <c r="AL32" s="62"/>
+      <c r="AM32" s="62"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="62"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="62"/>
+      <c r="AV32" s="62"/>
+      <c r="AW32" s="62"/>
+      <c r="AX32" s="62"/>
+      <c r="AY32" s="62"/>
+      <c r="AZ32" s="62"/>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="73"/>
-      <c r="AY33" s="73"/>
-      <c r="AZ33" s="73"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="62"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="62"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="62"/>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
+      <c r="AW33" s="62"/>
+      <c r="AX33" s="62"/>
+      <c r="AY33" s="62"/>
+      <c r="AZ33" s="62"/>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="73"/>
-      <c r="AD34" s="73"/>
-      <c r="AE34" s="73"/>
-      <c r="AF34" s="73"/>
-      <c r="AG34" s="73"/>
-      <c r="AH34" s="73"/>
-      <c r="AI34" s="73"/>
-      <c r="AJ34" s="73"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="73"/>
-      <c r="AM34" s="73"/>
-      <c r="AN34" s="73"/>
-      <c r="AO34" s="73"/>
-      <c r="AP34" s="73"/>
-      <c r="AQ34" s="73"/>
-      <c r="AR34" s="73"/>
-      <c r="AS34" s="73"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="73"/>
-      <c r="AZ34" s="73"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="62"/>
+      <c r="AJ34" s="62"/>
+      <c r="AK34" s="62"/>
+      <c r="AL34" s="62"/>
+      <c r="AM34" s="62"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="62"/>
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="62"/>
+      <c r="AT34" s="62"/>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="62"/>
+      <c r="AW34" s="62"/>
+      <c r="AX34" s="62"/>
+      <c r="AY34" s="62"/>
+      <c r="AZ34" s="62"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="73"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="73"/>
-      <c r="AH35" s="73"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="73"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="73"/>
-      <c r="AN35" s="73"/>
-      <c r="AO35" s="73"/>
-      <c r="AP35" s="73"/>
-      <c r="AQ35" s="73"/>
-      <c r="AR35" s="73"/>
-      <c r="AS35" s="73"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="73"/>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="73"/>
-      <c r="AX35" s="73"/>
-      <c r="AY35" s="73"/>
-      <c r="AZ35" s="73"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="62"/>
+      <c r="AH35" s="62"/>
+      <c r="AI35" s="62"/>
+      <c r="AJ35" s="62"/>
+      <c r="AK35" s="62"/>
+      <c r="AL35" s="62"/>
+      <c r="AM35" s="62"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="62"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="62"/>
+      <c r="AT35" s="62"/>
+      <c r="AU35" s="62"/>
+      <c r="AV35" s="62"/>
+      <c r="AW35" s="62"/>
+      <c r="AX35" s="62"/>
+      <c r="AY35" s="62"/>
+      <c r="AZ35" s="62"/>
     </row>
     <row r="36" spans="1:52">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="73"/>
-      <c r="AB36" s="73"/>
-      <c r="AC36" s="73"/>
-      <c r="AD36" s="73"/>
-      <c r="AE36" s="73"/>
-      <c r="AF36" s="73"/>
-      <c r="AG36" s="73"/>
-      <c r="AH36" s="73"/>
-      <c r="AI36" s="73"/>
-      <c r="AJ36" s="73"/>
-      <c r="AK36" s="73"/>
-      <c r="AL36" s="73"/>
-      <c r="AM36" s="73"/>
-      <c r="AN36" s="73"/>
-      <c r="AO36" s="73"/>
-      <c r="AP36" s="73"/>
-      <c r="AQ36" s="73"/>
-      <c r="AR36" s="73"/>
-      <c r="AS36" s="73"/>
-      <c r="AT36" s="73"/>
-      <c r="AU36" s="73"/>
-      <c r="AV36" s="73"/>
-      <c r="AW36" s="73"/>
-      <c r="AX36" s="73"/>
-      <c r="AY36" s="73"/>
-      <c r="AZ36" s="73"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="62"/>
+      <c r="AG36" s="62"/>
+      <c r="AH36" s="62"/>
+      <c r="AI36" s="62"/>
+      <c r="AJ36" s="62"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="62"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="62"/>
+      <c r="AT36" s="62"/>
+      <c r="AU36" s="62"/>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="62"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="62"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="73"/>
-      <c r="AC37" s="73"/>
-      <c r="AD37" s="73"/>
-      <c r="AE37" s="73"/>
-      <c r="AF37" s="73"/>
-      <c r="AG37" s="73"/>
-      <c r="AH37" s="73"/>
-      <c r="AI37" s="73"/>
-      <c r="AJ37" s="73"/>
-      <c r="AK37" s="73"/>
-      <c r="AL37" s="73"/>
-      <c r="AM37" s="73"/>
-      <c r="AN37" s="73"/>
-      <c r="AO37" s="73"/>
-      <c r="AP37" s="73"/>
-      <c r="AQ37" s="73"/>
-      <c r="AR37" s="73"/>
-      <c r="AS37" s="73"/>
-      <c r="AT37" s="73"/>
-      <c r="AU37" s="73"/>
-      <c r="AV37" s="73"/>
-      <c r="AW37" s="73"/>
-      <c r="AX37" s="73"/>
-      <c r="AY37" s="73"/>
-      <c r="AZ37" s="73"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="62"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="62"/>
+      <c r="AG37" s="62"/>
+      <c r="AH37" s="62"/>
+      <c r="AI37" s="62"/>
+      <c r="AJ37" s="62"/>
+      <c r="AK37" s="62"/>
+      <c r="AL37" s="62"/>
+      <c r="AM37" s="62"/>
+      <c r="AN37" s="62"/>
+      <c r="AO37" s="62"/>
+      <c r="AP37" s="62"/>
+      <c r="AQ37" s="62"/>
+      <c r="AR37" s="62"/>
+      <c r="AS37" s="62"/>
+      <c r="AT37" s="62"/>
+      <c r="AU37" s="62"/>
+      <c r="AV37" s="62"/>
+      <c r="AW37" s="62"/>
+      <c r="AX37" s="62"/>
+      <c r="AY37" s="62"/>
+      <c r="AZ37" s="62"/>
     </row>
     <row r="38" spans="1:52">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="73"/>
-      <c r="AA38" s="73"/>
-      <c r="AB38" s="73"/>
-      <c r="AC38" s="73"/>
-      <c r="AD38" s="73"/>
-      <c r="AE38" s="73"/>
-      <c r="AF38" s="73"/>
-      <c r="AG38" s="73"/>
-      <c r="AH38" s="73"/>
-      <c r="AI38" s="73"/>
-      <c r="AJ38" s="73"/>
-      <c r="AK38" s="73"/>
-      <c r="AL38" s="73"/>
-      <c r="AM38" s="73"/>
-      <c r="AN38" s="73"/>
-      <c r="AO38" s="73"/>
-      <c r="AP38" s="73"/>
-      <c r="AQ38" s="73"/>
-      <c r="AR38" s="73"/>
-      <c r="AS38" s="73"/>
-      <c r="AT38" s="73"/>
-      <c r="AU38" s="73"/>
-      <c r="AV38" s="73"/>
-      <c r="AW38" s="73"/>
-      <c r="AX38" s="73"/>
-      <c r="AY38" s="73"/>
-      <c r="AZ38" s="73"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="62"/>
+      <c r="AH38" s="62"/>
+      <c r="AI38" s="62"/>
+      <c r="AJ38" s="62"/>
+      <c r="AK38" s="62"/>
+      <c r="AL38" s="62"/>
+      <c r="AM38" s="62"/>
+      <c r="AN38" s="62"/>
+      <c r="AO38" s="62"/>
+      <c r="AP38" s="62"/>
+      <c r="AQ38" s="62"/>
+      <c r="AR38" s="62"/>
+      <c r="AS38" s="62"/>
+      <c r="AT38" s="62"/>
+      <c r="AU38" s="62"/>
+      <c r="AV38" s="62"/>
+      <c r="AW38" s="62"/>
+      <c r="AX38" s="62"/>
+      <c r="AY38" s="62"/>
+      <c r="AZ38" s="62"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="73"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="73"/>
-      <c r="Y39" s="73"/>
-      <c r="Z39" s="73"/>
-      <c r="AA39" s="73"/>
-      <c r="AB39" s="73"/>
-      <c r="AC39" s="73"/>
-      <c r="AD39" s="73"/>
-      <c r="AE39" s="73"/>
-      <c r="AF39" s="73"/>
-      <c r="AG39" s="73"/>
-      <c r="AH39" s="73"/>
-      <c r="AI39" s="73"/>
-      <c r="AJ39" s="73"/>
-      <c r="AK39" s="73"/>
-      <c r="AL39" s="73"/>
-      <c r="AM39" s="73"/>
-      <c r="AN39" s="73"/>
-      <c r="AO39" s="73"/>
-      <c r="AP39" s="73"/>
-      <c r="AQ39" s="73"/>
-      <c r="AR39" s="73"/>
-      <c r="AS39" s="73"/>
-      <c r="AT39" s="73"/>
-      <c r="AU39" s="73"/>
-      <c r="AV39" s="73"/>
-      <c r="AW39" s="73"/>
-      <c r="AX39" s="73"/>
-      <c r="AY39" s="73"/>
-      <c r="AZ39" s="73"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="62"/>
+      <c r="AH39" s="62"/>
+      <c r="AI39" s="62"/>
+      <c r="AJ39" s="62"/>
+      <c r="AK39" s="62"/>
+      <c r="AL39" s="62"/>
+      <c r="AM39" s="62"/>
+      <c r="AN39" s="62"/>
+      <c r="AO39" s="62"/>
+      <c r="AP39" s="62"/>
+      <c r="AQ39" s="62"/>
+      <c r="AR39" s="62"/>
+      <c r="AS39" s="62"/>
+      <c r="AT39" s="62"/>
+      <c r="AU39" s="62"/>
+      <c r="AV39" s="62"/>
+      <c r="AW39" s="62"/>
+      <c r="AX39" s="62"/>
+      <c r="AY39" s="62"/>
+      <c r="AZ39" s="62"/>
     </row>
     <row r="40" spans="1:52">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="73"/>
-      <c r="AA40" s="73"/>
-      <c r="AB40" s="73"/>
-      <c r="AC40" s="73"/>
-      <c r="AD40" s="73"/>
-      <c r="AE40" s="73"/>
-      <c r="AF40" s="73"/>
-      <c r="AG40" s="73"/>
-      <c r="AH40" s="73"/>
-      <c r="AI40" s="73"/>
-      <c r="AJ40" s="73"/>
-      <c r="AK40" s="73"/>
-      <c r="AL40" s="73"/>
-      <c r="AM40" s="73"/>
-      <c r="AN40" s="73"/>
-      <c r="AO40" s="73"/>
-      <c r="AP40" s="73"/>
-      <c r="AQ40" s="73"/>
-      <c r="AR40" s="73"/>
-      <c r="AS40" s="73"/>
-      <c r="AT40" s="73"/>
-      <c r="AU40" s="73"/>
-      <c r="AV40" s="73"/>
-      <c r="AW40" s="73"/>
-      <c r="AX40" s="73"/>
-      <c r="AY40" s="73"/>
-      <c r="AZ40" s="73"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="62"/>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="62"/>
+      <c r="AH40" s="62"/>
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="62"/>
+      <c r="AK40" s="62"/>
+      <c r="AL40" s="62"/>
+      <c r="AM40" s="62"/>
+      <c r="AN40" s="62"/>
+      <c r="AO40" s="62"/>
+      <c r="AP40" s="62"/>
+      <c r="AQ40" s="62"/>
+      <c r="AR40" s="62"/>
+      <c r="AS40" s="62"/>
+      <c r="AT40" s="62"/>
+      <c r="AU40" s="62"/>
+      <c r="AV40" s="62"/>
+      <c r="AW40" s="62"/>
+      <c r="AX40" s="62"/>
+      <c r="AY40" s="62"/>
+      <c r="AZ40" s="62"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
-      <c r="AF41" s="73"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="73"/>
-      <c r="AK41" s="73"/>
-      <c r="AL41" s="73"/>
-      <c r="AM41" s="73"/>
-      <c r="AN41" s="73"/>
-      <c r="AO41" s="73"/>
-      <c r="AP41" s="73"/>
-      <c r="AQ41" s="73"/>
-      <c r="AR41" s="73"/>
-      <c r="AS41" s="73"/>
-      <c r="AT41" s="73"/>
-      <c r="AU41" s="73"/>
-      <c r="AV41" s="73"/>
-      <c r="AW41" s="73"/>
-      <c r="AX41" s="73"/>
-      <c r="AY41" s="73"/>
-      <c r="AZ41" s="73"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="62"/>
+      <c r="AE41" s="62"/>
+      <c r="AF41" s="62"/>
+      <c r="AG41" s="62"/>
+      <c r="AH41" s="62"/>
+      <c r="AI41" s="62"/>
+      <c r="AJ41" s="62"/>
+      <c r="AK41" s="62"/>
+      <c r="AL41" s="62"/>
+      <c r="AM41" s="62"/>
+      <c r="AN41" s="62"/>
+      <c r="AO41" s="62"/>
+      <c r="AP41" s="62"/>
+      <c r="AQ41" s="62"/>
+      <c r="AR41" s="62"/>
+      <c r="AS41" s="62"/>
+      <c r="AT41" s="62"/>
+      <c r="AU41" s="62"/>
+      <c r="AV41" s="62"/>
+      <c r="AW41" s="62"/>
+      <c r="AX41" s="62"/>
+      <c r="AY41" s="62"/>
+      <c r="AZ41" s="62"/>
     </row>
     <row r="42" spans="1:52">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="73"/>
-      <c r="AA42" s="73"/>
-      <c r="AB42" s="73"/>
-      <c r="AC42" s="73"/>
-      <c r="AD42" s="73"/>
-      <c r="AE42" s="73"/>
-      <c r="AF42" s="73"/>
-      <c r="AG42" s="73"/>
-      <c r="AH42" s="73"/>
-      <c r="AI42" s="73"/>
-      <c r="AJ42" s="73"/>
-      <c r="AK42" s="73"/>
-      <c r="AL42" s="73"/>
-      <c r="AM42" s="73"/>
-      <c r="AN42" s="73"/>
-      <c r="AO42" s="73"/>
-      <c r="AP42" s="73"/>
-      <c r="AQ42" s="73"/>
-      <c r="AR42" s="73"/>
-      <c r="AS42" s="73"/>
-      <c r="AT42" s="73"/>
-      <c r="AU42" s="73"/>
-      <c r="AV42" s="73"/>
-      <c r="AW42" s="73"/>
-      <c r="AX42" s="73"/>
-      <c r="AY42" s="73"/>
-      <c r="AZ42" s="73"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="62"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="62"/>
+      <c r="AF42" s="62"/>
+      <c r="AG42" s="62"/>
+      <c r="AH42" s="62"/>
+      <c r="AI42" s="62"/>
+      <c r="AJ42" s="62"/>
+      <c r="AK42" s="62"/>
+      <c r="AL42" s="62"/>
+      <c r="AM42" s="62"/>
+      <c r="AN42" s="62"/>
+      <c r="AO42" s="62"/>
+      <c r="AP42" s="62"/>
+      <c r="AQ42" s="62"/>
+      <c r="AR42" s="62"/>
+      <c r="AS42" s="62"/>
+      <c r="AT42" s="62"/>
+      <c r="AU42" s="62"/>
+      <c r="AV42" s="62"/>
+      <c r="AW42" s="62"/>
+      <c r="AX42" s="62"/>
+      <c r="AY42" s="62"/>
+      <c r="AZ42" s="62"/>
     </row>
     <row r="43" spans="1:52">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="73"/>
-      <c r="AD43" s="73"/>
-      <c r="AE43" s="73"/>
-      <c r="AF43" s="73"/>
-      <c r="AG43" s="73"/>
-      <c r="AH43" s="73"/>
-      <c r="AI43" s="73"/>
-      <c r="AJ43" s="73"/>
-      <c r="AK43" s="73"/>
-      <c r="AL43" s="73"/>
-      <c r="AM43" s="73"/>
-      <c r="AN43" s="73"/>
-      <c r="AO43" s="73"/>
-      <c r="AP43" s="73"/>
-      <c r="AQ43" s="73"/>
-      <c r="AR43" s="73"/>
-      <c r="AS43" s="73"/>
-      <c r="AT43" s="73"/>
-      <c r="AU43" s="73"/>
-      <c r="AV43" s="73"/>
-      <c r="AW43" s="73"/>
-      <c r="AX43" s="73"/>
-      <c r="AY43" s="73"/>
-      <c r="AZ43" s="73"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="62"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="62"/>
+      <c r="AA43" s="62"/>
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="62"/>
+      <c r="AE43" s="62"/>
+      <c r="AF43" s="62"/>
+      <c r="AG43" s="62"/>
+      <c r="AH43" s="62"/>
+      <c r="AI43" s="62"/>
+      <c r="AJ43" s="62"/>
+      <c r="AK43" s="62"/>
+      <c r="AL43" s="62"/>
+      <c r="AM43" s="62"/>
+      <c r="AN43" s="62"/>
+      <c r="AO43" s="62"/>
+      <c r="AP43" s="62"/>
+      <c r="AQ43" s="62"/>
+      <c r="AR43" s="62"/>
+      <c r="AS43" s="62"/>
+      <c r="AT43" s="62"/>
+      <c r="AU43" s="62"/>
+      <c r="AV43" s="62"/>
+      <c r="AW43" s="62"/>
+      <c r="AX43" s="62"/>
+      <c r="AY43" s="62"/>
+      <c r="AZ43" s="62"/>
     </row>
     <row r="44" spans="1:52">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="73"/>
-      <c r="S44" s="73"/>
-      <c r="T44" s="73"/>
-      <c r="U44" s="73"/>
-      <c r="V44" s="73"/>
-      <c r="W44" s="73"/>
-      <c r="X44" s="73"/>
-      <c r="Y44" s="73"/>
-      <c r="Z44" s="73"/>
-      <c r="AA44" s="73"/>
-      <c r="AB44" s="73"/>
-      <c r="AC44" s="73"/>
-      <c r="AD44" s="73"/>
-      <c r="AE44" s="73"/>
-      <c r="AF44" s="73"/>
-      <c r="AG44" s="73"/>
-      <c r="AH44" s="73"/>
-      <c r="AI44" s="73"/>
-      <c r="AJ44" s="73"/>
-      <c r="AK44" s="73"/>
-      <c r="AL44" s="73"/>
-      <c r="AM44" s="73"/>
-      <c r="AN44" s="73"/>
-      <c r="AO44" s="73"/>
-      <c r="AP44" s="73"/>
-      <c r="AQ44" s="73"/>
-      <c r="AR44" s="73"/>
-      <c r="AS44" s="73"/>
-      <c r="AT44" s="73"/>
-      <c r="AU44" s="73"/>
-      <c r="AV44" s="73"/>
-      <c r="AW44" s="73"/>
-      <c r="AX44" s="73"/>
-      <c r="AY44" s="73"/>
-      <c r="AZ44" s="73"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="62"/>
+      <c r="AE44" s="62"/>
+      <c r="AF44" s="62"/>
+      <c r="AG44" s="62"/>
+      <c r="AH44" s="62"/>
+      <c r="AI44" s="62"/>
+      <c r="AJ44" s="62"/>
+      <c r="AK44" s="62"/>
+      <c r="AL44" s="62"/>
+      <c r="AM44" s="62"/>
+      <c r="AN44" s="62"/>
+      <c r="AO44" s="62"/>
+      <c r="AP44" s="62"/>
+      <c r="AQ44" s="62"/>
+      <c r="AR44" s="62"/>
+      <c r="AS44" s="62"/>
+      <c r="AT44" s="62"/>
+      <c r="AU44" s="62"/>
+      <c r="AV44" s="62"/>
+      <c r="AW44" s="62"/>
+      <c r="AX44" s="62"/>
+      <c r="AY44" s="62"/>
+      <c r="AZ44" s="62"/>
     </row>
     <row r="45" spans="1:52">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="73"/>
-      <c r="U45" s="73"/>
-      <c r="V45" s="73"/>
-      <c r="W45" s="73"/>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
-      <c r="Z45" s="73"/>
-      <c r="AA45" s="73"/>
-      <c r="AB45" s="73"/>
-      <c r="AC45" s="73"/>
-      <c r="AD45" s="73"/>
-      <c r="AE45" s="73"/>
-      <c r="AF45" s="73"/>
-      <c r="AG45" s="73"/>
-      <c r="AH45" s="73"/>
-      <c r="AI45" s="73"/>
-      <c r="AJ45" s="73"/>
-      <c r="AK45" s="73"/>
-      <c r="AL45" s="73"/>
-      <c r="AM45" s="73"/>
-      <c r="AN45" s="73"/>
-      <c r="AO45" s="73"/>
-      <c r="AP45" s="73"/>
-      <c r="AQ45" s="73"/>
-      <c r="AR45" s="73"/>
-      <c r="AS45" s="73"/>
-      <c r="AT45" s="73"/>
-      <c r="AU45" s="73"/>
-      <c r="AV45" s="73"/>
-      <c r="AW45" s="73"/>
-      <c r="AX45" s="73"/>
-      <c r="AY45" s="73"/>
-      <c r="AZ45" s="73"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="62"/>
+      <c r="U45" s="62"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="62"/>
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="62"/>
+      <c r="AE45" s="62"/>
+      <c r="AF45" s="62"/>
+      <c r="AG45" s="62"/>
+      <c r="AH45" s="62"/>
+      <c r="AI45" s="62"/>
+      <c r="AJ45" s="62"/>
+      <c r="AK45" s="62"/>
+      <c r="AL45" s="62"/>
+      <c r="AM45" s="62"/>
+      <c r="AN45" s="62"/>
+      <c r="AO45" s="62"/>
+      <c r="AP45" s="62"/>
+      <c r="AQ45" s="62"/>
+      <c r="AR45" s="62"/>
+      <c r="AS45" s="62"/>
+      <c r="AT45" s="62"/>
+      <c r="AU45" s="62"/>
+      <c r="AV45" s="62"/>
+      <c r="AW45" s="62"/>
+      <c r="AX45" s="62"/>
+      <c r="AY45" s="62"/>
+      <c r="AZ45" s="62"/>
     </row>
     <row r="46" spans="1:52">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="73"/>
-      <c r="V46" s="73"/>
-      <c r="W46" s="73"/>
-      <c r="X46" s="73"/>
-      <c r="Y46" s="73"/>
-      <c r="Z46" s="73"/>
-      <c r="AA46" s="73"/>
-      <c r="AB46" s="73"/>
-      <c r="AC46" s="73"/>
-      <c r="AD46" s="73"/>
-      <c r="AE46" s="73"/>
-      <c r="AF46" s="73"/>
-      <c r="AG46" s="73"/>
-      <c r="AH46" s="73"/>
-      <c r="AI46" s="73"/>
-      <c r="AJ46" s="73"/>
-      <c r="AK46" s="73"/>
-      <c r="AL46" s="73"/>
-      <c r="AM46" s="73"/>
-      <c r="AN46" s="73"/>
-      <c r="AO46" s="73"/>
-      <c r="AP46" s="73"/>
-      <c r="AQ46" s="73"/>
-      <c r="AR46" s="73"/>
-      <c r="AS46" s="73"/>
-      <c r="AT46" s="73"/>
-      <c r="AU46" s="73"/>
-      <c r="AV46" s="73"/>
-      <c r="AW46" s="73"/>
-      <c r="AX46" s="73"/>
-      <c r="AY46" s="73"/>
-      <c r="AZ46" s="73"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="62"/>
+      <c r="Z46" s="62"/>
+      <c r="AA46" s="62"/>
+      <c r="AB46" s="62"/>
+      <c r="AC46" s="62"/>
+      <c r="AD46" s="62"/>
+      <c r="AE46" s="62"/>
+      <c r="AF46" s="62"/>
+      <c r="AG46" s="62"/>
+      <c r="AH46" s="62"/>
+      <c r="AI46" s="62"/>
+      <c r="AJ46" s="62"/>
+      <c r="AK46" s="62"/>
+      <c r="AL46" s="62"/>
+      <c r="AM46" s="62"/>
+      <c r="AN46" s="62"/>
+      <c r="AO46" s="62"/>
+      <c r="AP46" s="62"/>
+      <c r="AQ46" s="62"/>
+      <c r="AR46" s="62"/>
+      <c r="AS46" s="62"/>
+      <c r="AT46" s="62"/>
+      <c r="AU46" s="62"/>
+      <c r="AV46" s="62"/>
+      <c r="AW46" s="62"/>
+      <c r="AX46" s="62"/>
+      <c r="AY46" s="62"/>
+      <c r="AZ46" s="62"/>
     </row>
     <row r="47" spans="1:52">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="73"/>
-      <c r="S47" s="73"/>
-      <c r="T47" s="73"/>
-      <c r="U47" s="73"/>
-      <c r="V47" s="73"/>
-      <c r="W47" s="73"/>
-      <c r="X47" s="73"/>
-      <c r="Y47" s="73"/>
-      <c r="Z47" s="73"/>
-      <c r="AA47" s="73"/>
-      <c r="AB47" s="73"/>
-      <c r="AC47" s="73"/>
-      <c r="AD47" s="73"/>
-      <c r="AE47" s="73"/>
-      <c r="AF47" s="73"/>
-      <c r="AG47" s="73"/>
-      <c r="AH47" s="73"/>
-      <c r="AI47" s="73"/>
-      <c r="AJ47" s="73"/>
-      <c r="AK47" s="73"/>
-      <c r="AL47" s="73"/>
-      <c r="AM47" s="73"/>
-      <c r="AN47" s="73"/>
-      <c r="AO47" s="73"/>
-      <c r="AP47" s="73"/>
-      <c r="AQ47" s="73"/>
-      <c r="AR47" s="73"/>
-      <c r="AS47" s="73"/>
-      <c r="AT47" s="73"/>
-      <c r="AU47" s="73"/>
-      <c r="AV47" s="73"/>
-      <c r="AW47" s="73"/>
-      <c r="AX47" s="73"/>
-      <c r="AY47" s="73"/>
-      <c r="AZ47" s="73"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="62"/>
+      <c r="AE47" s="62"/>
+      <c r="AF47" s="62"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="62"/>
+      <c r="AK47" s="62"/>
+      <c r="AL47" s="62"/>
+      <c r="AM47" s="62"/>
+      <c r="AN47" s="62"/>
+      <c r="AO47" s="62"/>
+      <c r="AP47" s="62"/>
+      <c r="AQ47" s="62"/>
+      <c r="AR47" s="62"/>
+      <c r="AS47" s="62"/>
+      <c r="AT47" s="62"/>
+      <c r="AU47" s="62"/>
+      <c r="AV47" s="62"/>
+      <c r="AW47" s="62"/>
+      <c r="AX47" s="62"/>
+      <c r="AY47" s="62"/>
+      <c r="AZ47" s="62"/>
     </row>
     <row r="48" spans="1:52">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
-      <c r="T48" s="73"/>
-      <c r="U48" s="73"/>
-      <c r="V48" s="73"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="73"/>
-      <c r="AA48" s="73"/>
-      <c r="AB48" s="73"/>
-      <c r="AC48" s="73"/>
-      <c r="AD48" s="73"/>
-      <c r="AE48" s="73"/>
-      <c r="AF48" s="73"/>
-      <c r="AG48" s="73"/>
-      <c r="AH48" s="73"/>
-      <c r="AI48" s="73"/>
-      <c r="AJ48" s="73"/>
-      <c r="AK48" s="73"/>
-      <c r="AL48" s="73"/>
-      <c r="AM48" s="73"/>
-      <c r="AN48" s="73"/>
-      <c r="AO48" s="73"/>
-      <c r="AP48" s="73"/>
-      <c r="AQ48" s="73"/>
-      <c r="AR48" s="73"/>
-      <c r="AS48" s="73"/>
-      <c r="AT48" s="73"/>
-      <c r="AU48" s="73"/>
-      <c r="AV48" s="73"/>
-      <c r="AW48" s="73"/>
-      <c r="AX48" s="73"/>
-      <c r="AY48" s="73"/>
-      <c r="AZ48" s="73"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="62"/>
+      <c r="Z48" s="62"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="62"/>
+      <c r="AC48" s="62"/>
+      <c r="AD48" s="62"/>
+      <c r="AE48" s="62"/>
+      <c r="AF48" s="62"/>
+      <c r="AG48" s="62"/>
+      <c r="AH48" s="62"/>
+      <c r="AI48" s="62"/>
+      <c r="AJ48" s="62"/>
+      <c r="AK48" s="62"/>
+      <c r="AL48" s="62"/>
+      <c r="AM48" s="62"/>
+      <c r="AN48" s="62"/>
+      <c r="AO48" s="62"/>
+      <c r="AP48" s="62"/>
+      <c r="AQ48" s="62"/>
+      <c r="AR48" s="62"/>
+      <c r="AS48" s="62"/>
+      <c r="AT48" s="62"/>
+      <c r="AU48" s="62"/>
+      <c r="AV48" s="62"/>
+      <c r="AW48" s="62"/>
+      <c r="AX48" s="62"/>
+      <c r="AY48" s="62"/>
+      <c r="AZ48" s="62"/>
     </row>
     <row r="49" spans="1:52">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="73"/>
-      <c r="AE49" s="73"/>
-      <c r="AF49" s="73"/>
-      <c r="AG49" s="73"/>
-      <c r="AH49" s="73"/>
-      <c r="AI49" s="73"/>
-      <c r="AJ49" s="73"/>
-      <c r="AK49" s="73"/>
-      <c r="AL49" s="73"/>
-      <c r="AM49" s="73"/>
-      <c r="AN49" s="73"/>
-      <c r="AO49" s="73"/>
-      <c r="AP49" s="73"/>
-      <c r="AQ49" s="73"/>
-      <c r="AR49" s="73"/>
-      <c r="AS49" s="73"/>
-      <c r="AT49" s="73"/>
-      <c r="AU49" s="73"/>
-      <c r="AV49" s="73"/>
-      <c r="AW49" s="73"/>
-      <c r="AX49" s="73"/>
-      <c r="AY49" s="73"/>
-      <c r="AZ49" s="73"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="62"/>
+      <c r="AA49" s="62"/>
+      <c r="AB49" s="62"/>
+      <c r="AC49" s="62"/>
+      <c r="AD49" s="62"/>
+      <c r="AE49" s="62"/>
+      <c r="AF49" s="62"/>
+      <c r="AG49" s="62"/>
+      <c r="AH49" s="62"/>
+      <c r="AI49" s="62"/>
+      <c r="AJ49" s="62"/>
+      <c r="AK49" s="62"/>
+      <c r="AL49" s="62"/>
+      <c r="AM49" s="62"/>
+      <c r="AN49" s="62"/>
+      <c r="AO49" s="62"/>
+      <c r="AP49" s="62"/>
+      <c r="AQ49" s="62"/>
+      <c r="AR49" s="62"/>
+      <c r="AS49" s="62"/>
+      <c r="AT49" s="62"/>
+      <c r="AU49" s="62"/>
+      <c r="AV49" s="62"/>
+      <c r="AW49" s="62"/>
+      <c r="AX49" s="62"/>
+      <c r="AY49" s="62"/>
+      <c r="AZ49" s="62"/>
     </row>
     <row r="50" spans="1:52">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="73"/>
-      <c r="S50" s="73"/>
-      <c r="T50" s="73"/>
-      <c r="U50" s="73"/>
-      <c r="V50" s="73"/>
-      <c r="W50" s="73"/>
-      <c r="X50" s="73"/>
-      <c r="Y50" s="73"/>
-      <c r="Z50" s="73"/>
-      <c r="AA50" s="73"/>
-      <c r="AB50" s="73"/>
-      <c r="AC50" s="73"/>
-      <c r="AD50" s="73"/>
-      <c r="AE50" s="73"/>
-      <c r="AF50" s="73"/>
-      <c r="AG50" s="73"/>
-      <c r="AH50" s="73"/>
-      <c r="AI50" s="73"/>
-      <c r="AJ50" s="73"/>
-      <c r="AK50" s="73"/>
-      <c r="AL50" s="73"/>
-      <c r="AM50" s="73"/>
-      <c r="AN50" s="73"/>
-      <c r="AO50" s="73"/>
-      <c r="AP50" s="73"/>
-      <c r="AQ50" s="73"/>
-      <c r="AR50" s="73"/>
-      <c r="AS50" s="73"/>
-      <c r="AT50" s="73"/>
-      <c r="AU50" s="73"/>
-      <c r="AV50" s="73"/>
-      <c r="AW50" s="73"/>
-      <c r="AX50" s="73"/>
-      <c r="AY50" s="73"/>
-      <c r="AZ50" s="73"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="62"/>
+      <c r="X50" s="62"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="62"/>
+      <c r="AA50" s="62"/>
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="62"/>
+      <c r="AD50" s="62"/>
+      <c r="AE50" s="62"/>
+      <c r="AF50" s="62"/>
+      <c r="AG50" s="62"/>
+      <c r="AH50" s="62"/>
+      <c r="AI50" s="62"/>
+      <c r="AJ50" s="62"/>
+      <c r="AK50" s="62"/>
+      <c r="AL50" s="62"/>
+      <c r="AM50" s="62"/>
+      <c r="AN50" s="62"/>
+      <c r="AO50" s="62"/>
+      <c r="AP50" s="62"/>
+      <c r="AQ50" s="62"/>
+      <c r="AR50" s="62"/>
+      <c r="AS50" s="62"/>
+      <c r="AT50" s="62"/>
+      <c r="AU50" s="62"/>
+      <c r="AV50" s="62"/>
+      <c r="AW50" s="62"/>
+      <c r="AX50" s="62"/>
+      <c r="AY50" s="62"/>
+      <c r="AZ50" s="62"/>
     </row>
     <row r="51" spans="1:52">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="73"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="73"/>
-      <c r="V51" s="73"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="73"/>
-      <c r="AC51" s="73"/>
-      <c r="AD51" s="73"/>
-      <c r="AE51" s="73"/>
-      <c r="AF51" s="73"/>
-      <c r="AG51" s="73"/>
-      <c r="AH51" s="73"/>
-      <c r="AI51" s="73"/>
-      <c r="AJ51" s="73"/>
-      <c r="AK51" s="73"/>
-      <c r="AL51" s="73"/>
-      <c r="AM51" s="73"/>
-      <c r="AN51" s="73"/>
-      <c r="AO51" s="73"/>
-      <c r="AP51" s="73"/>
-      <c r="AQ51" s="73"/>
-      <c r="AR51" s="73"/>
-      <c r="AS51" s="73"/>
-      <c r="AT51" s="73"/>
-      <c r="AU51" s="73"/>
-      <c r="AV51" s="73"/>
-      <c r="AW51" s="73"/>
-      <c r="AX51" s="73"/>
-      <c r="AY51" s="73"/>
-      <c r="AZ51" s="73"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="62"/>
+      <c r="Z51" s="62"/>
+      <c r="AA51" s="62"/>
+      <c r="AB51" s="62"/>
+      <c r="AC51" s="62"/>
+      <c r="AD51" s="62"/>
+      <c r="AE51" s="62"/>
+      <c r="AF51" s="62"/>
+      <c r="AG51" s="62"/>
+      <c r="AH51" s="62"/>
+      <c r="AI51" s="62"/>
+      <c r="AJ51" s="62"/>
+      <c r="AK51" s="62"/>
+      <c r="AL51" s="62"/>
+      <c r="AM51" s="62"/>
+      <c r="AN51" s="62"/>
+      <c r="AO51" s="62"/>
+      <c r="AP51" s="62"/>
+      <c r="AQ51" s="62"/>
+      <c r="AR51" s="62"/>
+      <c r="AS51" s="62"/>
+      <c r="AT51" s="62"/>
+      <c r="AU51" s="62"/>
+      <c r="AV51" s="62"/>
+      <c r="AW51" s="62"/>
+      <c r="AX51" s="62"/>
+      <c r="AY51" s="62"/>
+      <c r="AZ51" s="62"/>
     </row>
     <row r="52" spans="1:52">
-      <c r="A52" s="74"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="77"/>
-      <c r="S52" s="77"/>
-      <c r="T52" s="77"/>
-      <c r="U52" s="77"/>
-      <c r="V52" s="77"/>
-      <c r="W52" s="77"/>
-      <c r="X52" s="77"/>
-      <c r="Y52" s="77"/>
-      <c r="Z52" s="77"/>
-      <c r="AA52" s="77"/>
-      <c r="AB52" s="77"/>
-      <c r="AC52" s="77"/>
-      <c r="AD52" s="77"/>
-      <c r="AE52" s="77"/>
-      <c r="AF52" s="77"/>
-      <c r="AG52" s="77"/>
-      <c r="AH52" s="77"/>
-      <c r="AI52" s="77"/>
-      <c r="AJ52" s="77"/>
-      <c r="AK52" s="77"/>
-      <c r="AL52" s="77"/>
-      <c r="AM52" s="77"/>
-      <c r="AN52" s="77"/>
-      <c r="AO52" s="77"/>
-      <c r="AP52" s="77"/>
-      <c r="AQ52" s="77"/>
-      <c r="AR52" s="77"/>
-      <c r="AS52" s="77"/>
-      <c r="AT52" s="77"/>
-      <c r="AU52" s="77"/>
-      <c r="AV52" s="77"/>
-      <c r="AW52" s="77"/>
-      <c r="AX52" s="77"/>
-      <c r="AY52" s="77"/>
-      <c r="AZ52" s="77"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="66"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="66"/>
+      <c r="T52" s="66"/>
+      <c r="U52" s="66"/>
+      <c r="V52" s="66"/>
+      <c r="W52" s="66"/>
+      <c r="X52" s="66"/>
+      <c r="Y52" s="66"/>
+      <c r="Z52" s="66"/>
+      <c r="AA52" s="66"/>
+      <c r="AB52" s="66"/>
+      <c r="AC52" s="66"/>
+      <c r="AD52" s="66"/>
+      <c r="AE52" s="66"/>
+      <c r="AF52" s="66"/>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="66"/>
+      <c r="AI52" s="66"/>
+      <c r="AJ52" s="66"/>
+      <c r="AK52" s="66"/>
+      <c r="AL52" s="66"/>
+      <c r="AM52" s="66"/>
+      <c r="AN52" s="66"/>
+      <c r="AO52" s="66"/>
+      <c r="AP52" s="66"/>
+      <c r="AQ52" s="66"/>
+      <c r="AR52" s="66"/>
+      <c r="AS52" s="66"/>
+      <c r="AT52" s="66"/>
+      <c r="AU52" s="66"/>
+      <c r="AV52" s="66"/>
+      <c r="AW52" s="66"/>
+      <c r="AX52" s="66"/>
+      <c r="AY52" s="66"/>
+      <c r="AZ52" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A1:AL2"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="U47:AZ47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:T48"/>
+    <mergeCell ref="U48:AZ48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:T49"/>
+    <mergeCell ref="U49:AZ49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:T50"/>
+    <mergeCell ref="U50:AZ50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="G51:J51"/>
@@ -8176,246 +8439,6 @@
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="K52:T52"/>
     <mergeCell ref="U52:AZ52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:T49"/>
-    <mergeCell ref="U49:AZ49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:T50"/>
-    <mergeCell ref="U50:AZ50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="U47:AZ47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:T48"/>
-    <mergeCell ref="U48:AZ48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="A1:AL2"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AZ1"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="U4:AZ4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8428,9 +8451,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA239"/>
+  <dimension ref="A1:BA236"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
@@ -20385,134 +20408,759 @@
       <c r="AZ210" s="26"/>
       <c r="BA210" s="27"/>
     </row>
+    <row r="211" spans="1:53">
+      <c r="A211" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B211" s="30"/>
+      <c r="C211" s="30"/>
+      <c r="D211" s="30"/>
+      <c r="E211" s="30"/>
+      <c r="F211" s="31"/>
+      <c r="G211" s="29"/>
+      <c r="H211" s="30"/>
+      <c r="I211" s="30"/>
+      <c r="J211" s="30"/>
+      <c r="K211" s="30"/>
+      <c r="L211" s="30"/>
+      <c r="M211" s="30"/>
+      <c r="N211" s="30"/>
+      <c r="O211" s="30"/>
+      <c r="P211" s="31"/>
+      <c r="Q211" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R211" s="30"/>
+      <c r="S211" s="30"/>
+      <c r="T211" s="30"/>
+      <c r="U211" s="30"/>
+      <c r="V211" s="30"/>
+      <c r="W211" s="30"/>
+      <c r="X211" s="30"/>
+      <c r="Y211" s="30"/>
+      <c r="Z211" s="31"/>
+      <c r="AA211" s="29"/>
+      <c r="AB211" s="30"/>
+      <c r="AC211" s="30"/>
+      <c r="AD211" s="30"/>
+      <c r="AE211" s="30"/>
+      <c r="AF211" s="30"/>
+      <c r="AG211" s="30"/>
+      <c r="AH211" s="30"/>
+      <c r="AI211" s="30"/>
+      <c r="AJ211" s="30"/>
+      <c r="AK211" s="30"/>
+      <c r="AL211" s="30"/>
+      <c r="AM211" s="30"/>
+      <c r="AN211" s="30"/>
+      <c r="AO211" s="30"/>
+      <c r="AP211" s="30"/>
+      <c r="AQ211" s="30"/>
+      <c r="AR211" s="30"/>
+      <c r="AS211" s="30"/>
+      <c r="AT211" s="30"/>
+      <c r="AU211" s="31"/>
+      <c r="AV211" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW211" s="30"/>
+      <c r="AX211" s="30"/>
+      <c r="AY211" s="30"/>
+      <c r="AZ211" s="30"/>
+      <c r="BA211" s="31"/>
+    </row>
+    <row r="212" spans="1:53">
+      <c r="A212" s="23"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
+      <c r="K212" s="19"/>
+      <c r="L212" s="19"/>
+      <c r="M212" s="19"/>
+      <c r="N212" s="19"/>
+      <c r="O212" s="19"/>
+      <c r="P212" s="19"/>
+      <c r="Q212" s="19"/>
+      <c r="R212" s="19"/>
+      <c r="S212" s="19"/>
+      <c r="T212" s="19"/>
+      <c r="U212" s="19"/>
+      <c r="V212" s="19"/>
+      <c r="W212" s="19"/>
+      <c r="X212" s="19"/>
+      <c r="Y212" s="19"/>
+      <c r="Z212" s="19"/>
+      <c r="AA212" s="19"/>
+      <c r="AB212" s="19"/>
+      <c r="AC212" s="19"/>
+      <c r="AD212" s="19"/>
+      <c r="AE212" s="19"/>
+      <c r="AF212" s="19"/>
+      <c r="AG212" s="19"/>
+      <c r="AH212" s="19"/>
+      <c r="AI212" s="19"/>
+      <c r="AJ212" s="19"/>
+      <c r="AK212" s="19"/>
+      <c r="AL212" s="19"/>
+      <c r="AM212" s="19"/>
+      <c r="AN212" s="19"/>
+      <c r="AO212" s="19"/>
+      <c r="AP212" s="19"/>
+      <c r="AQ212" s="19"/>
+      <c r="AR212" s="19"/>
+      <c r="AS212" s="19"/>
+      <c r="AT212" s="19"/>
+      <c r="AU212" s="19"/>
+      <c r="AV212" s="19"/>
+      <c r="AW212" s="19"/>
+      <c r="AX212" s="19"/>
+      <c r="AY212" s="19"/>
+      <c r="AZ212" s="19"/>
+      <c r="BA212" s="20"/>
+    </row>
+    <row r="213" spans="1:53">
+      <c r="A213" s="25"/>
+      <c r="B213" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
+      <c r="J213" s="21"/>
+      <c r="K213" s="21"/>
+      <c r="L213" s="21"/>
+      <c r="M213" s="21"/>
+      <c r="N213" s="21"/>
+      <c r="O213" s="21"/>
+      <c r="P213" s="21"/>
+      <c r="Q213" s="21"/>
+      <c r="R213" s="21"/>
+      <c r="S213" s="21"/>
+      <c r="T213" s="21"/>
+      <c r="U213" s="21"/>
+      <c r="V213" s="21"/>
+      <c r="W213" s="21"/>
+      <c r="X213" s="21"/>
+      <c r="Y213" s="21"/>
+      <c r="Z213" s="21"/>
+      <c r="AA213" s="21"/>
+      <c r="AB213" s="21"/>
+      <c r="AC213" s="21"/>
+      <c r="AD213" s="21"/>
+      <c r="AE213" s="21"/>
+      <c r="AF213" s="21"/>
+      <c r="AG213" s="21"/>
+      <c r="AH213" s="21"/>
+      <c r="AI213" s="21"/>
+      <c r="AJ213" s="21"/>
+      <c r="AK213" s="21"/>
+      <c r="AL213" s="21"/>
+      <c r="AM213" s="21"/>
+      <c r="AN213" s="21"/>
+      <c r="AO213" s="21"/>
+      <c r="AP213" s="21"/>
+      <c r="AQ213" s="21"/>
+      <c r="AR213" s="21"/>
+      <c r="AS213" s="21"/>
+      <c r="AT213" s="21"/>
+      <c r="AU213" s="21"/>
+      <c r="AV213" s="21"/>
+      <c r="AW213" s="21"/>
+      <c r="AX213" s="21"/>
+      <c r="AY213" s="21"/>
+      <c r="AZ213" s="21"/>
+      <c r="BA213" s="22"/>
+    </row>
+    <row r="214" spans="1:53">
+      <c r="A214" s="25"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
+      <c r="J214" s="21"/>
+      <c r="K214" s="21"/>
+      <c r="L214" s="21"/>
+      <c r="M214" s="21"/>
+      <c r="N214" s="21"/>
+      <c r="O214" s="21"/>
+      <c r="P214" s="21"/>
+      <c r="Q214" s="21"/>
+      <c r="R214" s="21"/>
+      <c r="S214" s="21"/>
+      <c r="T214" s="21"/>
+      <c r="U214" s="21"/>
+      <c r="V214" s="21"/>
+      <c r="W214" s="21"/>
+      <c r="X214" s="21"/>
+      <c r="Y214" s="21"/>
+      <c r="Z214" s="21"/>
+      <c r="AA214" s="21"/>
+      <c r="AB214" s="21"/>
+      <c r="AC214" s="21"/>
+      <c r="AD214" s="21"/>
+      <c r="AE214" s="21"/>
+      <c r="AF214" s="21"/>
+      <c r="AG214" s="21"/>
+      <c r="AH214" s="21"/>
+      <c r="AI214" s="21"/>
+      <c r="AJ214" s="21"/>
+      <c r="AK214" s="21"/>
+      <c r="AL214" s="21"/>
+      <c r="AM214" s="21"/>
+      <c r="AN214" s="21"/>
+      <c r="AO214" s="21"/>
+      <c r="AP214" s="21"/>
+      <c r="AQ214" s="21"/>
+      <c r="AR214" s="21"/>
+      <c r="AS214" s="21"/>
+      <c r="AT214" s="21"/>
+      <c r="AU214" s="21"/>
+      <c r="AV214" s="21"/>
+      <c r="AW214" s="21"/>
+      <c r="AX214" s="21"/>
+      <c r="AY214" s="21"/>
+      <c r="AZ214" s="21"/>
+      <c r="BA214" s="22"/>
+    </row>
+    <row r="215" spans="1:53">
+      <c r="A215" s="25"/>
+      <c r="B215" s="21"/>
+      <c r="C215" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
+      <c r="I215" s="21"/>
+      <c r="J215" s="21"/>
+      <c r="K215" s="21"/>
+      <c r="L215" s="21"/>
+      <c r="M215" s="21"/>
+      <c r="N215" s="21"/>
+      <c r="O215" s="21"/>
+      <c r="P215" s="21"/>
+      <c r="Q215" s="21"/>
+      <c r="R215" s="21"/>
+      <c r="S215" s="21"/>
+      <c r="T215" s="21"/>
+      <c r="U215" s="21"/>
+      <c r="V215" s="21"/>
+      <c r="W215" s="21"/>
+      <c r="X215" s="21"/>
+      <c r="Y215" s="21"/>
+      <c r="Z215" s="21"/>
+      <c r="AA215" s="21"/>
+      <c r="AB215" s="21"/>
+      <c r="AC215" s="21"/>
+      <c r="AD215" s="21"/>
+      <c r="AE215" s="21"/>
+      <c r="AF215" s="21"/>
+      <c r="AG215" s="21"/>
+      <c r="AH215" s="21"/>
+      <c r="AI215" s="21"/>
+      <c r="AJ215" s="21"/>
+      <c r="AK215" s="21"/>
+      <c r="AL215" s="21"/>
+      <c r="AM215" s="21"/>
+      <c r="AN215" s="21"/>
+      <c r="AO215" s="21"/>
+      <c r="AP215" s="21"/>
+      <c r="AQ215" s="21"/>
+      <c r="AR215" s="21"/>
+      <c r="AS215" s="21"/>
+      <c r="AT215" s="21"/>
+      <c r="AU215" s="21"/>
+      <c r="AV215" s="21"/>
+      <c r="AW215" s="21"/>
+      <c r="AX215" s="21"/>
+      <c r="AY215" s="21"/>
+      <c r="AZ215" s="21"/>
+      <c r="BA215" s="22"/>
+    </row>
+    <row r="216" spans="1:53">
+      <c r="A216" s="25"/>
+      <c r="B216" s="21"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E216" s="21"/>
+      <c r="F216" s="21"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21"/>
+      <c r="I216" s="21"/>
+      <c r="J216" s="21"/>
+      <c r="K216" s="21"/>
+      <c r="L216" s="21"/>
+      <c r="M216" s="21"/>
+      <c r="N216" s="21"/>
+      <c r="O216" s="21"/>
+      <c r="P216" s="21"/>
+      <c r="Q216" s="21"/>
+      <c r="R216" s="21"/>
+      <c r="S216" s="21"/>
+      <c r="T216" s="21"/>
+      <c r="U216" s="21"/>
+      <c r="V216" s="21"/>
+      <c r="W216" s="21"/>
+      <c r="X216" s="21"/>
+      <c r="Y216" s="21"/>
+      <c r="Z216" s="21"/>
+      <c r="AA216" s="21"/>
+      <c r="AB216" s="21"/>
+      <c r="AC216" s="21"/>
+      <c r="AD216" s="21"/>
+      <c r="AE216" s="21"/>
+      <c r="AF216" s="21"/>
+      <c r="AG216" s="21"/>
+      <c r="AH216" s="21"/>
+      <c r="AI216" s="21"/>
+      <c r="AJ216" s="21"/>
+      <c r="AK216" s="21"/>
+      <c r="AL216" s="21"/>
+      <c r="AM216" s="21"/>
+      <c r="AN216" s="21"/>
+      <c r="AO216" s="21"/>
+      <c r="AP216" s="21"/>
+      <c r="AQ216" s="21"/>
+      <c r="AR216" s="21"/>
+      <c r="AS216" s="21"/>
+      <c r="AT216" s="21"/>
+      <c r="AU216" s="21"/>
+      <c r="AV216" s="21"/>
+      <c r="AW216" s="21"/>
+      <c r="AX216" s="21"/>
+      <c r="AY216" s="21"/>
+      <c r="AZ216" s="21"/>
+      <c r="BA216" s="22"/>
+    </row>
+    <row r="217" spans="1:53">
+      <c r="A217" s="25"/>
+      <c r="B217" s="21"/>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
+      <c r="J217" s="21"/>
+      <c r="K217" s="21"/>
+      <c r="L217" s="28"/>
+      <c r="M217" s="21"/>
+      <c r="N217" s="21"/>
+      <c r="O217" s="21"/>
+      <c r="P217" s="21"/>
+      <c r="Q217" s="21"/>
+      <c r="R217" s="21"/>
+      <c r="S217" s="21"/>
+      <c r="T217" s="21"/>
+      <c r="U217" s="21"/>
+      <c r="V217" s="21"/>
+      <c r="W217" s="21"/>
+      <c r="X217" s="21"/>
+      <c r="Y217" s="21"/>
+      <c r="Z217" s="21"/>
+      <c r="AA217" s="21"/>
+      <c r="AB217" s="21"/>
+      <c r="AC217" s="21"/>
+      <c r="AD217" s="21"/>
+      <c r="AE217" s="21"/>
+      <c r="AF217" s="21"/>
+      <c r="AG217" s="21"/>
+      <c r="AH217" s="21"/>
+      <c r="AI217" s="21"/>
+      <c r="AJ217" s="21"/>
+      <c r="AK217" s="21"/>
+      <c r="AL217" s="21"/>
+      <c r="AM217" s="21"/>
+      <c r="AN217" s="21"/>
+      <c r="AO217" s="21"/>
+      <c r="AP217" s="21"/>
+      <c r="AQ217" s="21"/>
+      <c r="AR217" s="21"/>
+      <c r="AS217" s="21"/>
+      <c r="AT217" s="21"/>
+      <c r="AU217" s="21"/>
+      <c r="AV217" s="21"/>
+      <c r="AW217" s="21"/>
+      <c r="AX217" s="21"/>
+      <c r="AY217" s="21"/>
+      <c r="AZ217" s="21"/>
+      <c r="BA217" s="22"/>
+    </row>
+    <row r="218" spans="1:53">
+      <c r="A218" s="24"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="26"/>
+      <c r="G218" s="26"/>
+      <c r="H218" s="26"/>
+      <c r="I218" s="26"/>
+      <c r="J218" s="26"/>
+      <c r="K218" s="26"/>
+      <c r="L218" s="26"/>
+      <c r="M218" s="26"/>
+      <c r="N218" s="26"/>
+      <c r="O218" s="26"/>
+      <c r="P218" s="26"/>
+      <c r="Q218" s="26"/>
+      <c r="R218" s="26"/>
+      <c r="S218" s="26"/>
+      <c r="T218" s="26"/>
+      <c r="U218" s="26"/>
+      <c r="V218" s="26"/>
+      <c r="W218" s="26"/>
+      <c r="X218" s="26"/>
+      <c r="Y218" s="26"/>
+      <c r="Z218" s="26"/>
+      <c r="AA218" s="26"/>
+      <c r="AB218" s="26"/>
+      <c r="AC218" s="26"/>
+      <c r="AD218" s="26"/>
+      <c r="AE218" s="26"/>
+      <c r="AF218" s="26"/>
+      <c r="AG218" s="26"/>
+      <c r="AH218" s="26"/>
+      <c r="AI218" s="26"/>
+      <c r="AJ218" s="26"/>
+      <c r="AK218" s="26"/>
+      <c r="AL218" s="26"/>
+      <c r="AM218" s="26"/>
+      <c r="AN218" s="26"/>
+      <c r="AO218" s="26"/>
+      <c r="AP218" s="26"/>
+      <c r="AQ218" s="26"/>
+      <c r="AR218" s="26"/>
+      <c r="AS218" s="26"/>
+      <c r="AT218" s="26"/>
+      <c r="AU218" s="26"/>
+      <c r="AV218" s="26"/>
+      <c r="AW218" s="26"/>
+      <c r="AX218" s="26"/>
+      <c r="AY218" s="26"/>
+      <c r="AZ218" s="26"/>
+      <c r="BA218" s="27"/>
+    </row>
+    <row r="219" spans="1:53">
+      <c r="A219" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="19"/>
+      <c r="K219" s="19"/>
+      <c r="L219" s="19"/>
+      <c r="M219" s="19"/>
+      <c r="N219" s="19"/>
+      <c r="O219" s="19"/>
+      <c r="P219" s="20"/>
+      <c r="Q219" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="R219" s="19"/>
+      <c r="S219" s="19"/>
+      <c r="T219" s="19"/>
+      <c r="U219" s="19"/>
+      <c r="V219" s="19"/>
+      <c r="W219" s="19"/>
+      <c r="X219" s="19"/>
+      <c r="Y219" s="19"/>
+      <c r="Z219" s="20"/>
+      <c r="AA219" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB219" s="19"/>
+      <c r="AC219" s="19"/>
+      <c r="AD219" s="19"/>
+      <c r="AE219" s="19"/>
+      <c r="AF219" s="19"/>
+      <c r="AG219" s="19"/>
+      <c r="AH219" s="19"/>
+      <c r="AI219" s="19"/>
+      <c r="AJ219" s="19"/>
+      <c r="AK219" s="19"/>
+      <c r="AL219" s="19"/>
+      <c r="AM219" s="19"/>
+      <c r="AN219" s="19"/>
+      <c r="AO219" s="19"/>
+      <c r="AP219" s="19"/>
+      <c r="AQ219" s="19"/>
+      <c r="AR219" s="19"/>
+      <c r="AS219" s="19"/>
+      <c r="AT219" s="19"/>
+      <c r="AU219" s="20"/>
+      <c r="AV219" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW219" s="19"/>
+      <c r="AX219" s="19"/>
+      <c r="AY219" s="19"/>
+      <c r="AZ219" s="19"/>
+      <c r="BA219" s="20"/>
+    </row>
+    <row r="220" spans="1:53">
+      <c r="A220" s="23"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="19"/>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="19"/>
+      <c r="K220" s="19"/>
+      <c r="L220" s="19"/>
+      <c r="M220" s="19"/>
+      <c r="N220" s="19"/>
+      <c r="O220" s="19"/>
+      <c r="P220" s="19"/>
+      <c r="Q220" s="19"/>
+      <c r="R220" s="19"/>
+      <c r="S220" s="19"/>
+      <c r="T220" s="19"/>
+      <c r="U220" s="19"/>
+      <c r="V220" s="19"/>
+      <c r="W220" s="19"/>
+      <c r="X220" s="19"/>
+      <c r="Y220" s="19"/>
+      <c r="Z220" s="19"/>
+      <c r="AA220" s="19"/>
+      <c r="AB220" s="19"/>
+      <c r="AC220" s="19"/>
+      <c r="AD220" s="19"/>
+      <c r="AE220" s="19"/>
+      <c r="AF220" s="19"/>
+      <c r="AG220" s="19"/>
+      <c r="AH220" s="19"/>
+      <c r="AI220" s="19"/>
+      <c r="AJ220" s="19"/>
+      <c r="AK220" s="19"/>
+      <c r="AL220" s="19"/>
+      <c r="AM220" s="19"/>
+      <c r="AN220" s="19"/>
+      <c r="AO220" s="19"/>
+      <c r="AP220" s="19"/>
+      <c r="AQ220" s="19"/>
+      <c r="AR220" s="19"/>
+      <c r="AS220" s="19"/>
+      <c r="AT220" s="19"/>
+      <c r="AU220" s="19"/>
+      <c r="AV220" s="19"/>
+      <c r="AW220" s="19"/>
+      <c r="AX220" s="19"/>
+      <c r="AY220" s="19"/>
+      <c r="AZ220" s="19"/>
+      <c r="BA220" s="20"/>
+    </row>
+    <row r="221" spans="1:53">
+      <c r="A221" s="25"/>
+      <c r="B221" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
+      <c r="J221" s="21"/>
+      <c r="K221" s="21"/>
+      <c r="L221" s="21"/>
+      <c r="M221" s="21"/>
+      <c r="N221" s="21"/>
+      <c r="O221" s="21"/>
+      <c r="P221" s="21"/>
+      <c r="Q221" s="21"/>
+      <c r="R221" s="21"/>
+      <c r="S221" s="21"/>
+      <c r="T221" s="21"/>
+      <c r="U221" s="21"/>
+      <c r="V221" s="21"/>
+      <c r="W221" s="21"/>
+      <c r="X221" s="21"/>
+      <c r="Y221" s="21"/>
+      <c r="Z221" s="21"/>
+      <c r="AA221" s="21"/>
+      <c r="AB221" s="21"/>
+      <c r="AC221" s="21"/>
+      <c r="AD221" s="21"/>
+      <c r="AE221" s="21"/>
+      <c r="AF221" s="21"/>
+      <c r="AG221" s="21"/>
+      <c r="AH221" s="21"/>
+      <c r="AI221" s="21"/>
+      <c r="AJ221" s="21"/>
+      <c r="AK221" s="21"/>
+      <c r="AL221" s="21"/>
+      <c r="AM221" s="21"/>
+      <c r="AN221" s="21"/>
+      <c r="AO221" s="21"/>
+      <c r="AP221" s="21"/>
+      <c r="AQ221" s="21"/>
+      <c r="AR221" s="21"/>
+      <c r="AS221" s="21"/>
+      <c r="AT221" s="21"/>
+      <c r="AU221" s="21"/>
+      <c r="AV221" s="21"/>
+      <c r="AW221" s="21"/>
+      <c r="AX221" s="21"/>
+      <c r="AY221" s="21"/>
+      <c r="AZ221" s="21"/>
+      <c r="BA221" s="22"/>
+    </row>
     <row r="222" spans="1:53">
-      <c r="A222" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="20"/>
-      <c r="G222" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="19"/>
-      <c r="L222" s="19"/>
-      <c r="M222" s="19"/>
-      <c r="N222" s="19"/>
-      <c r="O222" s="19"/>
-      <c r="P222" s="20"/>
-      <c r="Q222" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="R222" s="19"/>
-      <c r="S222" s="19"/>
-      <c r="T222" s="19"/>
-      <c r="U222" s="19"/>
-      <c r="V222" s="19"/>
-      <c r="W222" s="19"/>
-      <c r="X222" s="19"/>
-      <c r="Y222" s="19"/>
-      <c r="Z222" s="20"/>
-      <c r="AA222" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB222" s="19"/>
-      <c r="AC222" s="19"/>
-      <c r="AD222" s="19"/>
-      <c r="AE222" s="19"/>
-      <c r="AF222" s="19"/>
-      <c r="AG222" s="19"/>
-      <c r="AH222" s="19"/>
-      <c r="AI222" s="19"/>
-      <c r="AJ222" s="19"/>
-      <c r="AK222" s="19"/>
-      <c r="AL222" s="19"/>
-      <c r="AM222" s="19"/>
-      <c r="AN222" s="19"/>
-      <c r="AO222" s="19"/>
-      <c r="AP222" s="19"/>
-      <c r="AQ222" s="19"/>
-      <c r="AR222" s="19"/>
-      <c r="AS222" s="19"/>
-      <c r="AT222" s="19"/>
-      <c r="AU222" s="20"/>
-      <c r="AV222" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW222" s="19"/>
-      <c r="AX222" s="19"/>
-      <c r="AY222" s="19"/>
-      <c r="AZ222" s="19"/>
-      <c r="BA222" s="20"/>
+      <c r="A222" s="25"/>
+      <c r="B222" s="21"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="21"/>
+      <c r="I222" s="21"/>
+      <c r="J222" s="21"/>
+      <c r="K222" s="21"/>
+      <c r="L222" s="28"/>
+      <c r="M222" s="21"/>
+      <c r="N222" s="21"/>
+      <c r="O222" s="21"/>
+      <c r="P222" s="21"/>
+      <c r="Q222" s="21"/>
+      <c r="R222" s="21"/>
+      <c r="S222" s="21"/>
+      <c r="T222" s="21"/>
+      <c r="U222" s="21"/>
+      <c r="V222" s="21"/>
+      <c r="W222" s="21"/>
+      <c r="X222" s="21"/>
+      <c r="Y222" s="21"/>
+      <c r="Z222" s="21"/>
+      <c r="AA222" s="21"/>
+      <c r="AB222" s="21"/>
+      <c r="AC222" s="21"/>
+      <c r="AD222" s="21"/>
+      <c r="AE222" s="21"/>
+      <c r="AF222" s="21"/>
+      <c r="AG222" s="21"/>
+      <c r="AH222" s="21"/>
+      <c r="AI222" s="21"/>
+      <c r="AJ222" s="21"/>
+      <c r="AK222" s="21"/>
+      <c r="AL222" s="21"/>
+      <c r="AM222" s="21"/>
+      <c r="AN222" s="21"/>
+      <c r="AO222" s="21"/>
+      <c r="AP222" s="21"/>
+      <c r="AQ222" s="21"/>
+      <c r="AR222" s="21"/>
+      <c r="AS222" s="21"/>
+      <c r="AT222" s="21"/>
+      <c r="AU222" s="21"/>
+      <c r="AV222" s="21"/>
+      <c r="AW222" s="21"/>
+      <c r="AX222" s="21"/>
+      <c r="AY222" s="21"/>
+      <c r="AZ222" s="21"/>
+      <c r="BA222" s="22"/>
     </row>
     <row r="223" spans="1:53">
-      <c r="A223" s="23"/>
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="G223" s="19"/>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="19"/>
-      <c r="K223" s="19"/>
-      <c r="L223" s="19"/>
-      <c r="M223" s="19"/>
-      <c r="N223" s="19"/>
-      <c r="O223" s="19"/>
-      <c r="P223" s="19"/>
-      <c r="Q223" s="19"/>
-      <c r="R223" s="19"/>
-      <c r="S223" s="19"/>
-      <c r="T223" s="19"/>
-      <c r="U223" s="19"/>
-      <c r="V223" s="19"/>
-      <c r="W223" s="19"/>
-      <c r="X223" s="19"/>
-      <c r="Y223" s="19"/>
-      <c r="Z223" s="19"/>
-      <c r="AA223" s="19"/>
-      <c r="AB223" s="19"/>
-      <c r="AC223" s="19"/>
-      <c r="AD223" s="19"/>
-      <c r="AE223" s="19"/>
-      <c r="AF223" s="19"/>
-      <c r="AG223" s="19"/>
-      <c r="AH223" s="19"/>
-      <c r="AI223" s="19"/>
-      <c r="AJ223" s="19"/>
-      <c r="AK223" s="19"/>
-      <c r="AL223" s="19"/>
-      <c r="AM223" s="19"/>
-      <c r="AN223" s="19"/>
-      <c r="AO223" s="19"/>
-      <c r="AP223" s="19"/>
-      <c r="AQ223" s="19"/>
-      <c r="AR223" s="19"/>
-      <c r="AS223" s="19"/>
-      <c r="AT223" s="19"/>
-      <c r="AU223" s="19"/>
-      <c r="AV223" s="19"/>
-      <c r="AW223" s="19"/>
-      <c r="AX223" s="19"/>
-      <c r="AY223" s="19"/>
-      <c r="AZ223" s="19"/>
-      <c r="BA223" s="20"/>
+      <c r="A223" s="25"/>
+      <c r="B223" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="21"/>
+      <c r="I223" s="21"/>
+      <c r="J223" s="21"/>
+      <c r="K223" s="21"/>
+      <c r="L223" s="21"/>
+      <c r="M223" s="21"/>
+      <c r="N223" s="21"/>
+      <c r="O223" s="21"/>
+      <c r="P223" s="21"/>
+      <c r="Q223" s="21"/>
+      <c r="R223" s="21"/>
+      <c r="S223" s="21"/>
+      <c r="T223" s="21"/>
+      <c r="U223" s="21"/>
+      <c r="V223" s="21"/>
+      <c r="W223" s="21"/>
+      <c r="X223" s="21"/>
+      <c r="Y223" s="21"/>
+      <c r="Z223" s="21"/>
+      <c r="AA223" s="21"/>
+      <c r="AB223" s="21"/>
+      <c r="AC223" s="21"/>
+      <c r="AD223" s="21"/>
+      <c r="AE223" s="21"/>
+      <c r="AF223" s="21"/>
+      <c r="AG223" s="21"/>
+      <c r="AH223" s="21"/>
+      <c r="AI223" s="21"/>
+      <c r="AJ223" s="21"/>
+      <c r="AK223" s="21"/>
+      <c r="AL223" s="21"/>
+      <c r="AM223" s="21"/>
+      <c r="AN223" s="21"/>
+      <c r="AO223" s="21"/>
+      <c r="AP223" s="21"/>
+      <c r="AQ223" s="21"/>
+      <c r="AR223" s="21"/>
+      <c r="AS223" s="21"/>
+      <c r="AT223" s="21"/>
+      <c r="AU223" s="21"/>
+      <c r="AV223" s="21"/>
+      <c r="AW223" s="21"/>
+      <c r="AX223" s="21"/>
+      <c r="AY223" s="21"/>
+      <c r="AZ223" s="21"/>
+      <c r="BA223" s="22"/>
     </row>
     <row r="224" spans="1:53">
       <c r="A224" s="25"/>
-      <c r="B224" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C224" s="21" t="s">
-        <v>117</v>
-      </c>
+      <c r="B224" s="21"/>
+      <c r="C224" s="21"/>
       <c r="D224" s="21"/>
       <c r="E224" s="21"/>
       <c r="F224" s="21"/>
@@ -20565,342 +21213,338 @@
       <c r="BA224" s="22"/>
     </row>
     <row r="225" spans="1:53">
-      <c r="A225" s="25"/>
-      <c r="B225" s="21"/>
-      <c r="C225" s="21"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="21"/>
-      <c r="H225" s="21"/>
-      <c r="I225" s="21"/>
-      <c r="J225" s="21"/>
-      <c r="K225" s="21"/>
-      <c r="L225" s="28"/>
-      <c r="M225" s="21"/>
-      <c r="N225" s="21"/>
-      <c r="O225" s="21"/>
-      <c r="P225" s="21"/>
-      <c r="Q225" s="21"/>
-      <c r="R225" s="21"/>
-      <c r="S225" s="21"/>
-      <c r="T225" s="21"/>
-      <c r="U225" s="21"/>
-      <c r="V225" s="21"/>
-      <c r="W225" s="21"/>
-      <c r="X225" s="21"/>
-      <c r="Y225" s="21"/>
-      <c r="Z225" s="21"/>
-      <c r="AA225" s="21"/>
-      <c r="AB225" s="21"/>
-      <c r="AC225" s="21"/>
-      <c r="AD225" s="21"/>
-      <c r="AE225" s="21"/>
-      <c r="AF225" s="21"/>
-      <c r="AG225" s="21"/>
-      <c r="AH225" s="21"/>
-      <c r="AI225" s="21"/>
-      <c r="AJ225" s="21"/>
-      <c r="AK225" s="21"/>
-      <c r="AL225" s="21"/>
-      <c r="AM225" s="21"/>
-      <c r="AN225" s="21"/>
-      <c r="AO225" s="21"/>
-      <c r="AP225" s="21"/>
-      <c r="AQ225" s="21"/>
-      <c r="AR225" s="21"/>
-      <c r="AS225" s="21"/>
-      <c r="AT225" s="21"/>
-      <c r="AU225" s="21"/>
-      <c r="AV225" s="21"/>
-      <c r="AW225" s="21"/>
-      <c r="AX225" s="21"/>
-      <c r="AY225" s="21"/>
-      <c r="AZ225" s="21"/>
-      <c r="BA225" s="22"/>
+      <c r="A225" s="24"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
+      <c r="F225" s="26"/>
+      <c r="G225" s="26"/>
+      <c r="H225" s="26"/>
+      <c r="I225" s="26"/>
+      <c r="J225" s="26"/>
+      <c r="K225" s="26"/>
+      <c r="L225" s="26"/>
+      <c r="M225" s="26"/>
+      <c r="N225" s="26"/>
+      <c r="O225" s="26"/>
+      <c r="P225" s="26"/>
+      <c r="Q225" s="26"/>
+      <c r="R225" s="26"/>
+      <c r="S225" s="26"/>
+      <c r="T225" s="26"/>
+      <c r="U225" s="26"/>
+      <c r="V225" s="26"/>
+      <c r="W225" s="26"/>
+      <c r="X225" s="26"/>
+      <c r="Y225" s="26"/>
+      <c r="Z225" s="26"/>
+      <c r="AA225" s="26"/>
+      <c r="AB225" s="26"/>
+      <c r="AC225" s="26"/>
+      <c r="AD225" s="26"/>
+      <c r="AE225" s="26"/>
+      <c r="AF225" s="26"/>
+      <c r="AG225" s="26"/>
+      <c r="AH225" s="26"/>
+      <c r="AI225" s="26"/>
+      <c r="AJ225" s="26"/>
+      <c r="AK225" s="26"/>
+      <c r="AL225" s="26"/>
+      <c r="AM225" s="26"/>
+      <c r="AN225" s="26"/>
+      <c r="AO225" s="26"/>
+      <c r="AP225" s="26"/>
+      <c r="AQ225" s="26"/>
+      <c r="AR225" s="26"/>
+      <c r="AS225" s="26"/>
+      <c r="AT225" s="26"/>
+      <c r="AU225" s="26"/>
+      <c r="AV225" s="26"/>
+      <c r="AW225" s="26"/>
+      <c r="AX225" s="26"/>
+      <c r="AY225" s="26"/>
+      <c r="AZ225" s="26"/>
+      <c r="BA225" s="27"/>
     </row>
     <row r="226" spans="1:53">
-      <c r="A226" s="25"/>
-      <c r="B226" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C226" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D226" s="21"/>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="21"/>
-      <c r="H226" s="21"/>
-      <c r="I226" s="21"/>
-      <c r="J226" s="21"/>
-      <c r="K226" s="21"/>
-      <c r="L226" s="21"/>
-      <c r="M226" s="21"/>
-      <c r="N226" s="21"/>
-      <c r="O226" s="21"/>
-      <c r="P226" s="21"/>
-      <c r="Q226" s="21"/>
-      <c r="R226" s="21"/>
-      <c r="S226" s="21"/>
-      <c r="T226" s="21"/>
-      <c r="U226" s="21"/>
-      <c r="V226" s="21"/>
-      <c r="W226" s="21"/>
-      <c r="X226" s="21"/>
-      <c r="Y226" s="21"/>
-      <c r="Z226" s="21"/>
-      <c r="AA226" s="21"/>
-      <c r="AB226" s="21"/>
-      <c r="AC226" s="21"/>
-      <c r="AD226" s="21"/>
-      <c r="AE226" s="21"/>
-      <c r="AF226" s="21"/>
-      <c r="AG226" s="21"/>
-      <c r="AH226" s="21"/>
-      <c r="AI226" s="21"/>
-      <c r="AJ226" s="21"/>
-      <c r="AK226" s="21"/>
-      <c r="AL226" s="21"/>
-      <c r="AM226" s="21"/>
-      <c r="AN226" s="21"/>
-      <c r="AO226" s="21"/>
-      <c r="AP226" s="21"/>
-      <c r="AQ226" s="21"/>
-      <c r="AR226" s="21"/>
-      <c r="AS226" s="21"/>
-      <c r="AT226" s="21"/>
-      <c r="AU226" s="21"/>
-      <c r="AV226" s="21"/>
-      <c r="AW226" s="21"/>
-      <c r="AX226" s="21"/>
-      <c r="AY226" s="21"/>
-      <c r="AZ226" s="21"/>
-      <c r="BA226" s="22"/>
+      <c r="A226" s="29"/>
+      <c r="B226" s="30"/>
+      <c r="C226" s="30"/>
+      <c r="D226" s="30"/>
+      <c r="E226" s="30"/>
+      <c r="F226" s="31"/>
+      <c r="G226" s="29"/>
+      <c r="H226" s="30"/>
+      <c r="I226" s="30"/>
+      <c r="J226" s="30"/>
+      <c r="K226" s="30"/>
+      <c r="L226" s="30"/>
+      <c r="M226" s="30"/>
+      <c r="N226" s="30"/>
+      <c r="O226" s="30"/>
+      <c r="P226" s="31"/>
+      <c r="Q226" s="29"/>
+      <c r="R226" s="30"/>
+      <c r="S226" s="30"/>
+      <c r="T226" s="30"/>
+      <c r="U226" s="30"/>
+      <c r="V226" s="30"/>
+      <c r="W226" s="30"/>
+      <c r="X226" s="30"/>
+      <c r="Y226" s="30"/>
+      <c r="Z226" s="31"/>
+      <c r="AA226" s="29"/>
+      <c r="AB226" s="30"/>
+      <c r="AC226" s="30"/>
+      <c r="AD226" s="30"/>
+      <c r="AE226" s="30"/>
+      <c r="AF226" s="30"/>
+      <c r="AG226" s="30"/>
+      <c r="AH226" s="30"/>
+      <c r="AI226" s="30"/>
+      <c r="AJ226" s="30"/>
+      <c r="AK226" s="30"/>
+      <c r="AL226" s="30"/>
+      <c r="AM226" s="30"/>
+      <c r="AN226" s="30"/>
+      <c r="AO226" s="30"/>
+      <c r="AP226" s="30"/>
+      <c r="AQ226" s="30"/>
+      <c r="AR226" s="30"/>
+      <c r="AS226" s="30"/>
+      <c r="AT226" s="30"/>
+      <c r="AU226" s="31"/>
+      <c r="AV226" s="29"/>
+      <c r="AW226" s="30"/>
+      <c r="AX226" s="30"/>
+      <c r="AY226" s="30"/>
+      <c r="AZ226" s="30"/>
+      <c r="BA226" s="31"/>
     </row>
     <row r="227" spans="1:53">
-      <c r="A227" s="25"/>
-      <c r="B227" s="21"/>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="21"/>
-      <c r="G227" s="21"/>
-      <c r="H227" s="21"/>
-      <c r="I227" s="21"/>
-      <c r="J227" s="21"/>
-      <c r="K227" s="21"/>
-      <c r="L227" s="21"/>
-      <c r="M227" s="21"/>
-      <c r="N227" s="21"/>
-      <c r="O227" s="21"/>
-      <c r="P227" s="21"/>
-      <c r="Q227" s="21"/>
-      <c r="R227" s="21"/>
-      <c r="S227" s="21"/>
-      <c r="T227" s="21"/>
-      <c r="U227" s="21"/>
-      <c r="V227" s="21"/>
-      <c r="W227" s="21"/>
-      <c r="X227" s="21"/>
-      <c r="Y227" s="21"/>
-      <c r="Z227" s="21"/>
-      <c r="AA227" s="21"/>
-      <c r="AB227" s="21"/>
-      <c r="AC227" s="21"/>
-      <c r="AD227" s="21"/>
-      <c r="AE227" s="21"/>
-      <c r="AF227" s="21"/>
-      <c r="AG227" s="21"/>
-      <c r="AH227" s="21"/>
-      <c r="AI227" s="21"/>
-      <c r="AJ227" s="21"/>
-      <c r="AK227" s="21"/>
-      <c r="AL227" s="21"/>
-      <c r="AM227" s="21"/>
-      <c r="AN227" s="21"/>
-      <c r="AO227" s="21"/>
-      <c r="AP227" s="21"/>
-      <c r="AQ227" s="21"/>
-      <c r="AR227" s="21"/>
-      <c r="AS227" s="21"/>
-      <c r="AT227" s="21"/>
-      <c r="AU227" s="21"/>
-      <c r="AV227" s="21"/>
-      <c r="AW227" s="21"/>
-      <c r="AX227" s="21"/>
-      <c r="AY227" s="21"/>
-      <c r="AZ227" s="21"/>
-      <c r="BA227" s="22"/>
+      <c r="A227" s="23"/>
+      <c r="B227" s="19"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="19"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="19"/>
+      <c r="G227" s="19"/>
+      <c r="H227" s="19"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="19"/>
+      <c r="K227" s="19"/>
+      <c r="L227" s="19"/>
+      <c r="M227" s="19"/>
+      <c r="N227" s="19"/>
+      <c r="O227" s="19"/>
+      <c r="P227" s="19"/>
+      <c r="Q227" s="19"/>
+      <c r="R227" s="19"/>
+      <c r="S227" s="19"/>
+      <c r="T227" s="19"/>
+      <c r="U227" s="19"/>
+      <c r="V227" s="19"/>
+      <c r="W227" s="19"/>
+      <c r="X227" s="19"/>
+      <c r="Y227" s="19"/>
+      <c r="Z227" s="19"/>
+      <c r="AA227" s="19"/>
+      <c r="AB227" s="19"/>
+      <c r="AC227" s="19"/>
+      <c r="AD227" s="19"/>
+      <c r="AE227" s="19"/>
+      <c r="AF227" s="19"/>
+      <c r="AG227" s="19"/>
+      <c r="AH227" s="19"/>
+      <c r="AI227" s="19"/>
+      <c r="AJ227" s="19"/>
+      <c r="AK227" s="19"/>
+      <c r="AL227" s="19"/>
+      <c r="AM227" s="19"/>
+      <c r="AN227" s="19"/>
+      <c r="AO227" s="19"/>
+      <c r="AP227" s="19"/>
+      <c r="AQ227" s="19"/>
+      <c r="AR227" s="19"/>
+      <c r="AS227" s="19"/>
+      <c r="AT227" s="19"/>
+      <c r="AU227" s="19"/>
+      <c r="AV227" s="19"/>
+      <c r="AW227" s="19"/>
+      <c r="AX227" s="19"/>
+      <c r="AY227" s="19"/>
+      <c r="AZ227" s="19"/>
+      <c r="BA227" s="20"/>
     </row>
     <row r="228" spans="1:53">
-      <c r="A228" s="24"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="26"/>
-      <c r="G228" s="26"/>
-      <c r="H228" s="26"/>
-      <c r="I228" s="26"/>
-      <c r="J228" s="26"/>
-      <c r="K228" s="26"/>
-      <c r="L228" s="26"/>
-      <c r="M228" s="26"/>
-      <c r="N228" s="26"/>
-      <c r="O228" s="26"/>
-      <c r="P228" s="26"/>
-      <c r="Q228" s="26"/>
-      <c r="R228" s="26"/>
-      <c r="S228" s="26"/>
-      <c r="T228" s="26"/>
-      <c r="U228" s="26"/>
-      <c r="V228" s="26"/>
-      <c r="W228" s="26"/>
-      <c r="X228" s="26"/>
-      <c r="Y228" s="26"/>
-      <c r="Z228" s="26"/>
-      <c r="AA228" s="26"/>
-      <c r="AB228" s="26"/>
-      <c r="AC228" s="26"/>
-      <c r="AD228" s="26"/>
-      <c r="AE228" s="26"/>
-      <c r="AF228" s="26"/>
-      <c r="AG228" s="26"/>
-      <c r="AH228" s="26"/>
-      <c r="AI228" s="26"/>
-      <c r="AJ228" s="26"/>
-      <c r="AK228" s="26"/>
-      <c r="AL228" s="26"/>
-      <c r="AM228" s="26"/>
-      <c r="AN228" s="26"/>
-      <c r="AO228" s="26"/>
-      <c r="AP228" s="26"/>
-      <c r="AQ228" s="26"/>
-      <c r="AR228" s="26"/>
-      <c r="AS228" s="26"/>
-      <c r="AT228" s="26"/>
-      <c r="AU228" s="26"/>
-      <c r="AV228" s="26"/>
-      <c r="AW228" s="26"/>
-      <c r="AX228" s="26"/>
-      <c r="AY228" s="26"/>
-      <c r="AZ228" s="26"/>
-      <c r="BA228" s="27"/>
+      <c r="A228" s="25"/>
+      <c r="B228" s="28"/>
+      <c r="C228" s="21"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
+      <c r="I228" s="21"/>
+      <c r="J228" s="21"/>
+      <c r="K228" s="21"/>
+      <c r="L228" s="21"/>
+      <c r="M228" s="21"/>
+      <c r="N228" s="21"/>
+      <c r="O228" s="21"/>
+      <c r="P228" s="21"/>
+      <c r="Q228" s="21"/>
+      <c r="R228" s="21"/>
+      <c r="S228" s="21"/>
+      <c r="T228" s="21"/>
+      <c r="U228" s="21"/>
+      <c r="V228" s="21"/>
+      <c r="W228" s="21"/>
+      <c r="X228" s="21"/>
+      <c r="Y228" s="21"/>
+      <c r="Z228" s="21"/>
+      <c r="AA228" s="21"/>
+      <c r="AB228" s="21"/>
+      <c r="AC228" s="21"/>
+      <c r="AD228" s="21"/>
+      <c r="AE228" s="21"/>
+      <c r="AF228" s="21"/>
+      <c r="AG228" s="21"/>
+      <c r="AH228" s="21"/>
+      <c r="AI228" s="21"/>
+      <c r="AJ228" s="21"/>
+      <c r="AK228" s="21"/>
+      <c r="AL228" s="21"/>
+      <c r="AM228" s="21"/>
+      <c r="AN228" s="21"/>
+      <c r="AO228" s="21"/>
+      <c r="AP228" s="21"/>
+      <c r="AQ228" s="21"/>
+      <c r="AR228" s="21"/>
+      <c r="AS228" s="21"/>
+      <c r="AT228" s="21"/>
+      <c r="AU228" s="21"/>
+      <c r="AV228" s="21"/>
+      <c r="AW228" s="21"/>
+      <c r="AX228" s="21"/>
+      <c r="AY228" s="21"/>
+      <c r="AZ228" s="21"/>
+      <c r="BA228" s="22"/>
     </row>
     <row r="229" spans="1:53">
-      <c r="A229" s="29"/>
-      <c r="B229" s="30"/>
-      <c r="C229" s="30"/>
-      <c r="D229" s="30"/>
-      <c r="E229" s="30"/>
-      <c r="F229" s="31"/>
-      <c r="G229" s="29"/>
-      <c r="H229" s="30"/>
-      <c r="I229" s="30"/>
-      <c r="J229" s="30"/>
-      <c r="K229" s="30"/>
-      <c r="L229" s="30"/>
-      <c r="M229" s="30"/>
-      <c r="N229" s="30"/>
-      <c r="O229" s="30"/>
-      <c r="P229" s="31"/>
-      <c r="Q229" s="29"/>
-      <c r="R229" s="30"/>
-      <c r="S229" s="30"/>
-      <c r="T229" s="30"/>
-      <c r="U229" s="30"/>
-      <c r="V229" s="30"/>
-      <c r="W229" s="30"/>
-      <c r="X229" s="30"/>
-      <c r="Y229" s="30"/>
-      <c r="Z229" s="31"/>
-      <c r="AA229" s="29"/>
-      <c r="AB229" s="30"/>
-      <c r="AC229" s="30"/>
-      <c r="AD229" s="30"/>
-      <c r="AE229" s="30"/>
-      <c r="AF229" s="30"/>
-      <c r="AG229" s="30"/>
-      <c r="AH229" s="30"/>
-      <c r="AI229" s="30"/>
-      <c r="AJ229" s="30"/>
-      <c r="AK229" s="30"/>
-      <c r="AL229" s="30"/>
-      <c r="AM229" s="30"/>
-      <c r="AN229" s="30"/>
-      <c r="AO229" s="30"/>
-      <c r="AP229" s="30"/>
-      <c r="AQ229" s="30"/>
-      <c r="AR229" s="30"/>
-      <c r="AS229" s="30"/>
-      <c r="AT229" s="30"/>
-      <c r="AU229" s="31"/>
-      <c r="AV229" s="29"/>
-      <c r="AW229" s="30"/>
-      <c r="AX229" s="30"/>
-      <c r="AY229" s="30"/>
-      <c r="AZ229" s="30"/>
-      <c r="BA229" s="31"/>
+      <c r="A229" s="25"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="21"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+      <c r="I229" s="21"/>
+      <c r="J229" s="21"/>
+      <c r="K229" s="21"/>
+      <c r="L229" s="21"/>
+      <c r="M229" s="21"/>
+      <c r="N229" s="21"/>
+      <c r="O229" s="21"/>
+      <c r="P229" s="21"/>
+      <c r="Q229" s="21"/>
+      <c r="R229" s="21"/>
+      <c r="S229" s="21"/>
+      <c r="T229" s="21"/>
+      <c r="U229" s="21"/>
+      <c r="V229" s="21"/>
+      <c r="W229" s="21"/>
+      <c r="X229" s="21"/>
+      <c r="Y229" s="21"/>
+      <c r="Z229" s="21"/>
+      <c r="AA229" s="21"/>
+      <c r="AB229" s="21"/>
+      <c r="AC229" s="21"/>
+      <c r="AD229" s="21"/>
+      <c r="AE229" s="21"/>
+      <c r="AF229" s="21"/>
+      <c r="AG229" s="21"/>
+      <c r="AH229" s="21"/>
+      <c r="AI229" s="21"/>
+      <c r="AJ229" s="21"/>
+      <c r="AK229" s="21"/>
+      <c r="AL229" s="21"/>
+      <c r="AM229" s="21"/>
+      <c r="AN229" s="21"/>
+      <c r="AO229" s="21"/>
+      <c r="AP229" s="21"/>
+      <c r="AQ229" s="21"/>
+      <c r="AR229" s="21"/>
+      <c r="AS229" s="21"/>
+      <c r="AT229" s="21"/>
+      <c r="AU229" s="21"/>
+      <c r="AV229" s="21"/>
+      <c r="AW229" s="21"/>
+      <c r="AX229" s="21"/>
+      <c r="AY229" s="21"/>
+      <c r="AZ229" s="21"/>
+      <c r="BA229" s="22"/>
     </row>
     <row r="230" spans="1:53">
-      <c r="A230" s="23"/>
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
-      <c r="E230" s="19"/>
-      <c r="F230" s="19"/>
-      <c r="G230" s="19"/>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="19"/>
-      <c r="K230" s="19"/>
-      <c r="L230" s="19"/>
-      <c r="M230" s="19"/>
-      <c r="N230" s="19"/>
-      <c r="O230" s="19"/>
-      <c r="P230" s="19"/>
-      <c r="Q230" s="19"/>
-      <c r="R230" s="19"/>
-      <c r="S230" s="19"/>
-      <c r="T230" s="19"/>
-      <c r="U230" s="19"/>
-      <c r="V230" s="19"/>
-      <c r="W230" s="19"/>
-      <c r="X230" s="19"/>
-      <c r="Y230" s="19"/>
-      <c r="Z230" s="19"/>
-      <c r="AA230" s="19"/>
-      <c r="AB230" s="19"/>
-      <c r="AC230" s="19"/>
-      <c r="AD230" s="19"/>
-      <c r="AE230" s="19"/>
-      <c r="AF230" s="19"/>
-      <c r="AG230" s="19"/>
-      <c r="AH230" s="19"/>
-      <c r="AI230" s="19"/>
-      <c r="AJ230" s="19"/>
-      <c r="AK230" s="19"/>
-      <c r="AL230" s="19"/>
-      <c r="AM230" s="19"/>
-      <c r="AN230" s="19"/>
-      <c r="AO230" s="19"/>
-      <c r="AP230" s="19"/>
-      <c r="AQ230" s="19"/>
-      <c r="AR230" s="19"/>
-      <c r="AS230" s="19"/>
-      <c r="AT230" s="19"/>
-      <c r="AU230" s="19"/>
-      <c r="AV230" s="19"/>
-      <c r="AW230" s="19"/>
-      <c r="AX230" s="19"/>
-      <c r="AY230" s="19"/>
-      <c r="AZ230" s="19"/>
-      <c r="BA230" s="20"/>
+      <c r="A230" s="25"/>
+      <c r="B230" s="21"/>
+      <c r="C230" s="21"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
+      <c r="J230" s="21"/>
+      <c r="K230" s="21"/>
+      <c r="L230" s="21"/>
+      <c r="M230" s="21"/>
+      <c r="N230" s="21"/>
+      <c r="O230" s="21"/>
+      <c r="P230" s="21"/>
+      <c r="Q230" s="21"/>
+      <c r="R230" s="21"/>
+      <c r="S230" s="21"/>
+      <c r="T230" s="21"/>
+      <c r="U230" s="21"/>
+      <c r="V230" s="21"/>
+      <c r="W230" s="21"/>
+      <c r="X230" s="21"/>
+      <c r="Y230" s="21"/>
+      <c r="Z230" s="21"/>
+      <c r="AA230" s="21"/>
+      <c r="AB230" s="21"/>
+      <c r="AC230" s="21"/>
+      <c r="AD230" s="21"/>
+      <c r="AE230" s="21"/>
+      <c r="AF230" s="21"/>
+      <c r="AG230" s="21"/>
+      <c r="AH230" s="21"/>
+      <c r="AI230" s="21"/>
+      <c r="AJ230" s="21"/>
+      <c r="AK230" s="21"/>
+      <c r="AL230" s="21"/>
+      <c r="AM230" s="21"/>
+      <c r="AN230" s="21"/>
+      <c r="AO230" s="21"/>
+      <c r="AP230" s="21"/>
+      <c r="AQ230" s="21"/>
+      <c r="AR230" s="21"/>
+      <c r="AS230" s="21"/>
+      <c r="AT230" s="21"/>
+      <c r="AU230" s="21"/>
+      <c r="AV230" s="21"/>
+      <c r="AW230" s="21"/>
+      <c r="AX230" s="21"/>
+      <c r="AY230" s="21"/>
+      <c r="AZ230" s="21"/>
+      <c r="BA230" s="22"/>
     </row>
     <row r="231" spans="1:53">
       <c r="A231" s="25"/>
-      <c r="B231" s="28"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="21"/>
       <c r="D231" s="21"/>
       <c r="E231" s="21"/>
@@ -20965,7 +21609,7 @@
       <c r="I232" s="21"/>
       <c r="J232" s="21"/>
       <c r="K232" s="21"/>
-      <c r="L232" s="21"/>
+      <c r="L232" s="28"/>
       <c r="M232" s="21"/>
       <c r="N232" s="21"/>
       <c r="O232" s="21"/>
@@ -21130,7 +21774,7 @@
       <c r="I235" s="21"/>
       <c r="J235" s="21"/>
       <c r="K235" s="21"/>
-      <c r="L235" s="28"/>
+      <c r="L235" s="21"/>
       <c r="M235" s="21"/>
       <c r="N235" s="21"/>
       <c r="O235" s="21"/>
@@ -21174,224 +21818,59 @@
       <c r="BA235" s="22"/>
     </row>
     <row r="236" spans="1:53">
-      <c r="A236" s="25"/>
-      <c r="B236" s="21"/>
-      <c r="C236" s="21"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="21"/>
-      <c r="F236" s="21"/>
-      <c r="G236" s="21"/>
-      <c r="H236" s="21"/>
-      <c r="I236" s="21"/>
-      <c r="J236" s="21"/>
-      <c r="K236" s="21"/>
-      <c r="L236" s="21"/>
-      <c r="M236" s="21"/>
-      <c r="N236" s="21"/>
-      <c r="O236" s="21"/>
-      <c r="P236" s="21"/>
-      <c r="Q236" s="21"/>
-      <c r="R236" s="21"/>
-      <c r="S236" s="21"/>
-      <c r="T236" s="21"/>
-      <c r="U236" s="21"/>
-      <c r="V236" s="21"/>
-      <c r="W236" s="21"/>
-      <c r="X236" s="21"/>
-      <c r="Y236" s="21"/>
-      <c r="Z236" s="21"/>
-      <c r="AA236" s="21"/>
-      <c r="AB236" s="21"/>
-      <c r="AC236" s="21"/>
-      <c r="AD236" s="21"/>
-      <c r="AE236" s="21"/>
-      <c r="AF236" s="21"/>
-      <c r="AG236" s="21"/>
-      <c r="AH236" s="21"/>
-      <c r="AI236" s="21"/>
-      <c r="AJ236" s="21"/>
-      <c r="AK236" s="21"/>
-      <c r="AL236" s="21"/>
-      <c r="AM236" s="21"/>
-      <c r="AN236" s="21"/>
-      <c r="AO236" s="21"/>
-      <c r="AP236" s="21"/>
-      <c r="AQ236" s="21"/>
-      <c r="AR236" s="21"/>
-      <c r="AS236" s="21"/>
-      <c r="AT236" s="21"/>
-      <c r="AU236" s="21"/>
-      <c r="AV236" s="21"/>
-      <c r="AW236" s="21"/>
-      <c r="AX236" s="21"/>
-      <c r="AY236" s="21"/>
-      <c r="AZ236" s="21"/>
-      <c r="BA236" s="22"/>
-    </row>
-    <row r="237" spans="1:53">
-      <c r="A237" s="25"/>
-      <c r="B237" s="21"/>
-      <c r="C237" s="21"/>
-      <c r="D237" s="21"/>
-      <c r="E237" s="21"/>
-      <c r="F237" s="21"/>
-      <c r="G237" s="21"/>
-      <c r="H237" s="21"/>
-      <c r="I237" s="21"/>
-      <c r="J237" s="21"/>
-      <c r="K237" s="21"/>
-      <c r="L237" s="21"/>
-      <c r="M237" s="21"/>
-      <c r="N237" s="21"/>
-      <c r="O237" s="21"/>
-      <c r="P237" s="21"/>
-      <c r="Q237" s="21"/>
-      <c r="R237" s="21"/>
-      <c r="S237" s="21"/>
-      <c r="T237" s="21"/>
-      <c r="U237" s="21"/>
-      <c r="V237" s="21"/>
-      <c r="W237" s="21"/>
-      <c r="X237" s="21"/>
-      <c r="Y237" s="21"/>
-      <c r="Z237" s="21"/>
-      <c r="AA237" s="21"/>
-      <c r="AB237" s="21"/>
-      <c r="AC237" s="21"/>
-      <c r="AD237" s="21"/>
-      <c r="AE237" s="21"/>
-      <c r="AF237" s="21"/>
-      <c r="AG237" s="21"/>
-      <c r="AH237" s="21"/>
-      <c r="AI237" s="21"/>
-      <c r="AJ237" s="21"/>
-      <c r="AK237" s="21"/>
-      <c r="AL237" s="21"/>
-      <c r="AM237" s="21"/>
-      <c r="AN237" s="21"/>
-      <c r="AO237" s="21"/>
-      <c r="AP237" s="21"/>
-      <c r="AQ237" s="21"/>
-      <c r="AR237" s="21"/>
-      <c r="AS237" s="21"/>
-      <c r="AT237" s="21"/>
-      <c r="AU237" s="21"/>
-      <c r="AV237" s="21"/>
-      <c r="AW237" s="21"/>
-      <c r="AX237" s="21"/>
-      <c r="AY237" s="21"/>
-      <c r="AZ237" s="21"/>
-      <c r="BA237" s="22"/>
-    </row>
-    <row r="238" spans="1:53">
-      <c r="A238" s="25"/>
-      <c r="B238" s="21"/>
-      <c r="C238" s="21"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="21"/>
-      <c r="F238" s="21"/>
-      <c r="G238" s="21"/>
-      <c r="H238" s="21"/>
-      <c r="I238" s="21"/>
-      <c r="J238" s="21"/>
-      <c r="K238" s="21"/>
-      <c r="L238" s="21"/>
-      <c r="M238" s="21"/>
-      <c r="N238" s="21"/>
-      <c r="O238" s="21"/>
-      <c r="P238" s="21"/>
-      <c r="Q238" s="21"/>
-      <c r="R238" s="21"/>
-      <c r="S238" s="21"/>
-      <c r="T238" s="21"/>
-      <c r="U238" s="21"/>
-      <c r="V238" s="21"/>
-      <c r="W238" s="21"/>
-      <c r="X238" s="21"/>
-      <c r="Y238" s="21"/>
-      <c r="Z238" s="21"/>
-      <c r="AA238" s="21"/>
-      <c r="AB238" s="21"/>
-      <c r="AC238" s="21"/>
-      <c r="AD238" s="21"/>
-      <c r="AE238" s="21"/>
-      <c r="AF238" s="21"/>
-      <c r="AG238" s="21"/>
-      <c r="AH238" s="21"/>
-      <c r="AI238" s="21"/>
-      <c r="AJ238" s="21"/>
-      <c r="AK238" s="21"/>
-      <c r="AL238" s="21"/>
-      <c r="AM238" s="21"/>
-      <c r="AN238" s="21"/>
-      <c r="AO238" s="21"/>
-      <c r="AP238" s="21"/>
-      <c r="AQ238" s="21"/>
-      <c r="AR238" s="21"/>
-      <c r="AS238" s="21"/>
-      <c r="AT238" s="21"/>
-      <c r="AU238" s="21"/>
-      <c r="AV238" s="21"/>
-      <c r="AW238" s="21"/>
-      <c r="AX238" s="21"/>
-      <c r="AY238" s="21"/>
-      <c r="AZ238" s="21"/>
-      <c r="BA238" s="22"/>
-    </row>
-    <row r="239" spans="1:53">
-      <c r="A239" s="24"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
-      <c r="F239" s="26"/>
-      <c r="G239" s="26"/>
-      <c r="H239" s="26"/>
-      <c r="I239" s="26"/>
-      <c r="J239" s="26"/>
-      <c r="K239" s="26"/>
-      <c r="L239" s="26"/>
-      <c r="M239" s="26"/>
-      <c r="N239" s="26"/>
-      <c r="O239" s="26"/>
-      <c r="P239" s="26"/>
-      <c r="Q239" s="26"/>
-      <c r="R239" s="26"/>
-      <c r="S239" s="26"/>
-      <c r="T239" s="26"/>
-      <c r="U239" s="26"/>
-      <c r="V239" s="26"/>
-      <c r="W239" s="26"/>
-      <c r="X239" s="26"/>
-      <c r="Y239" s="26"/>
-      <c r="Z239" s="26"/>
-      <c r="AA239" s="26"/>
-      <c r="AB239" s="26"/>
-      <c r="AC239" s="26"/>
-      <c r="AD239" s="26"/>
-      <c r="AE239" s="26"/>
-      <c r="AF239" s="26"/>
-      <c r="AG239" s="26"/>
-      <c r="AH239" s="26"/>
-      <c r="AI239" s="26"/>
-      <c r="AJ239" s="26"/>
-      <c r="AK239" s="26"/>
-      <c r="AL239" s="26"/>
-      <c r="AM239" s="26"/>
-      <c r="AN239" s="26"/>
-      <c r="AO239" s="26"/>
-      <c r="AP239" s="26"/>
-      <c r="AQ239" s="26"/>
-      <c r="AR239" s="26"/>
-      <c r="AS239" s="26"/>
-      <c r="AT239" s="26"/>
-      <c r="AU239" s="26"/>
-      <c r="AV239" s="26"/>
-      <c r="AW239" s="26"/>
-      <c r="AX239" s="26"/>
-      <c r="AY239" s="26"/>
-      <c r="AZ239" s="26"/>
-      <c r="BA239" s="27"/>
+      <c r="A236" s="24"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="26"/>
+      <c r="F236" s="26"/>
+      <c r="G236" s="26"/>
+      <c r="H236" s="26"/>
+      <c r="I236" s="26"/>
+      <c r="J236" s="26"/>
+      <c r="K236" s="26"/>
+      <c r="L236" s="26"/>
+      <c r="M236" s="26"/>
+      <c r="N236" s="26"/>
+      <c r="O236" s="26"/>
+      <c r="P236" s="26"/>
+      <c r="Q236" s="26"/>
+      <c r="R236" s="26"/>
+      <c r="S236" s="26"/>
+      <c r="T236" s="26"/>
+      <c r="U236" s="26"/>
+      <c r="V236" s="26"/>
+      <c r="W236" s="26"/>
+      <c r="X236" s="26"/>
+      <c r="Y236" s="26"/>
+      <c r="Z236" s="26"/>
+      <c r="AA236" s="26"/>
+      <c r="AB236" s="26"/>
+      <c r="AC236" s="26"/>
+      <c r="AD236" s="26"/>
+      <c r="AE236" s="26"/>
+      <c r="AF236" s="26"/>
+      <c r="AG236" s="26"/>
+      <c r="AH236" s="26"/>
+      <c r="AI236" s="26"/>
+      <c r="AJ236" s="26"/>
+      <c r="AK236" s="26"/>
+      <c r="AL236" s="26"/>
+      <c r="AM236" s="26"/>
+      <c r="AN236" s="26"/>
+      <c r="AO236" s="26"/>
+      <c r="AP236" s="26"/>
+      <c r="AQ236" s="26"/>
+      <c r="AR236" s="26"/>
+      <c r="AS236" s="26"/>
+      <c r="AT236" s="26"/>
+      <c r="AU236" s="26"/>
+      <c r="AV236" s="26"/>
+      <c r="AW236" s="26"/>
+      <c r="AX236" s="26"/>
+      <c r="AY236" s="26"/>
+      <c r="AZ236" s="26"/>
+      <c r="BA236" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/30 設計/20 プログラム設計/クラス設計/backend/original/OrgAttendance.xlsx
+++ b/30 設計/20 プログラム設計/クラス設計/backend/original/OrgAttendance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="14385" yWindow="-30" windowWidth="13980" windowHeight="12900" activeTab="2"/>
@@ -11,7 +11,7 @@
     <sheet name="改訂履歴" sheetId="3" r:id="rId2"/>
     <sheet name="OrgAttendance" sheetId="40" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -629,13 +629,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>勤怠情報(AttendanceInfo):array = NULL</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -661,54 +654,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>AttendanceInfo !== NULL の場合、AttendanceInfoの各値を、以下のとおり、プロパティにセット</t>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カクアタイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AttendanceInfo === NULL の場合、処理終了</t>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AttendanceInfo[Attendance][id]</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DateTime(AttendanceInfo[Attendance][target_date])</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AttendanceInfo[Attendance][attendance_kubun]</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AttendanceInfo[Attendance][memo]</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DateTime(AttendanceInfo[Attendance][registration_date])</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>TargetUserプロパティセット</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>array('AttendanceInfo[Attendance][target_user])</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -757,10 +703,6 @@
   </si>
   <si>
     <t>DateTime(Result[0][Attendance][registration_date])</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>array(AttendanceInfo[Attendance][registration_user])</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -905,10 +847,6 @@
   </si>
   <si>
     <t>getAttendanceKubun</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AttendanceKubunプロパティをreturn</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1406,6 +1344,68 @@
   </si>
   <si>
     <t>falseをReturn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤怠情報(attendanceInfo):array = NULL</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>attendanceInfo !== NULL の場合、attendanceInfoの各値を、以下のとおり、プロパティにセット</t>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カクアタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>attendanceInfo[Attendance][id]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DateTime(attendanceInfo[Attendance][target_date])</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>attendanceInfo[Attendance][attendance_kubun]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>attendanceInfo[Attendance][memo]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DateTime(attendanceInfo[Attendance][registration_date])</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>attendanceInfo === NULL の場合、処理終了</t>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>array('attendanceInfo[Attendance][target_user])</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>array(attendanceInfo[Attendance][registration_user])</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>attendanceKubunプロパティをreturn</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1882,36 +1882,6 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1933,6 +1903,36 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2246,7 +2246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2288,7 +2288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2323,7 +2323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5404,2791 +5404,3031 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="72" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="73" t="str">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="61" t="str">
         <f>IF(表紙!AL43&lt;&gt;"",表紙!AL43,"")</f>
         <v>connectyee</v>
       </c>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
     </row>
     <row r="2" spans="1:52">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="72" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="74">
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="62">
         <f>IF(表紙!AL45&lt;&gt;"",表紙!AL45,"")</f>
         <v>2</v>
       </c>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="62"/>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="75" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="75" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="75" t="s">
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="75" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="65"/>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="67">
+      <c r="A5" s="66">
         <v>1</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68">
+      <c r="B5" s="66"/>
+      <c r="C5" s="67">
         <v>42293</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="70"/>
-      <c r="AT5" s="70"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
     </row>
     <row r="6" spans="1:52">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="62"/>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="62"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="73"/>
+      <c r="AP6" s="73"/>
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="73"/>
+      <c r="AS6" s="73"/>
+      <c r="AT6" s="73"/>
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="73"/>
+      <c r="AY6" s="73"/>
+      <c r="AZ6" s="73"/>
     </row>
     <row r="7" spans="1:52">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="73"/>
+      <c r="AS7" s="73"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="73"/>
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="73"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="73"/>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="73"/>
+      <c r="AY8" s="73"/>
+      <c r="AZ8" s="73"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="73"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73"/>
+      <c r="AY9" s="73"/>
+      <c r="AZ9" s="73"/>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="62"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="62"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="73"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="73"/>
+      <c r="AO11" s="73"/>
+      <c r="AP11" s="73"/>
+      <c r="AQ11" s="73"/>
+      <c r="AR11" s="73"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="73"/>
+      <c r="AU11" s="73"/>
+      <c r="AV11" s="73"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="73"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="73"/>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="62"/>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="62"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="62"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="62"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="62"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="73"/>
+      <c r="AS13" s="73"/>
+      <c r="AT13" s="73"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="73"/>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="73"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="73"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="73"/>
+      <c r="AS14" s="73"/>
+      <c r="AT14" s="73"/>
+      <c r="AU14" s="73"/>
+      <c r="AV14" s="73"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="73"/>
+      <c r="AY14" s="73"/>
+      <c r="AZ14" s="73"/>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="62"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="73"/>
+      <c r="AR15" s="73"/>
+      <c r="AS15" s="73"/>
+      <c r="AT15" s="73"/>
+      <c r="AU15" s="73"/>
+      <c r="AV15" s="73"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="73"/>
+      <c r="AY15" s="73"/>
+      <c r="AZ15" s="73"/>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="62"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="73"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="62"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="73"/>
+      <c r="AS17" s="73"/>
+      <c r="AT17" s="73"/>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="73"/>
+      <c r="AZ17" s="73"/>
     </row>
     <row r="18" spans="1:52">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62"/>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="62"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="73"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="73"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="73"/>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="62"/>
-      <c r="AY21" s="62"/>
-      <c r="AZ21" s="62"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="73"/>
+      <c r="AH21" s="73"/>
+      <c r="AI21" s="73"/>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="73"/>
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="73"/>
+      <c r="AN21" s="73"/>
+      <c r="AO21" s="73"/>
+      <c r="AP21" s="73"/>
+      <c r="AQ21" s="73"/>
+      <c r="AR21" s="73"/>
+      <c r="AS21" s="73"/>
+      <c r="AT21" s="73"/>
+      <c r="AU21" s="73"/>
+      <c r="AV21" s="73"/>
+      <c r="AW21" s="73"/>
+      <c r="AX21" s="73"/>
+      <c r="AY21" s="73"/>
+      <c r="AZ21" s="73"/>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="62"/>
-      <c r="AX22" s="62"/>
-      <c r="AY22" s="62"/>
-      <c r="AZ22" s="62"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="73"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="73"/>
+      <c r="AO22" s="73"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="73"/>
+      <c r="AT22" s="73"/>
+      <c r="AU22" s="73"/>
+      <c r="AV22" s="73"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="73"/>
+      <c r="AY22" s="73"/>
+      <c r="AZ22" s="73"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="62"/>
-      <c r="AY23" s="62"/>
-      <c r="AZ23" s="62"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="73"/>
+      <c r="AU23" s="73"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73"/>
+      <c r="AY23" s="73"/>
+      <c r="AZ23" s="73"/>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="62"/>
-      <c r="AM24" s="62"/>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="62"/>
-      <c r="AQ24" s="62"/>
-      <c r="AR24" s="62"/>
-      <c r="AS24" s="62"/>
-      <c r="AT24" s="62"/>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="62"/>
-      <c r="AW24" s="62"/>
-      <c r="AX24" s="62"/>
-      <c r="AY24" s="62"/>
-      <c r="AZ24" s="62"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="73"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="73"/>
+      <c r="AO24" s="73"/>
+      <c r="AP24" s="73"/>
+      <c r="AQ24" s="73"/>
+      <c r="AR24" s="73"/>
+      <c r="AS24" s="73"/>
+      <c r="AT24" s="73"/>
+      <c r="AU24" s="73"/>
+      <c r="AV24" s="73"/>
+      <c r="AW24" s="73"/>
+      <c r="AX24" s="73"/>
+      <c r="AY24" s="73"/>
+      <c r="AZ24" s="73"/>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="62"/>
-      <c r="AY25" s="62"/>
-      <c r="AZ25" s="62"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="73"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="73"/>
+      <c r="AR25" s="73"/>
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="73"/>
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="73"/>
+      <c r="AY25" s="73"/>
+      <c r="AZ25" s="73"/>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="62"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="62"/>
-      <c r="AX26" s="62"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="62"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="73"/>
+      <c r="AO26" s="73"/>
+      <c r="AP26" s="73"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
+      <c r="AT26" s="73"/>
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
+      <c r="AX26" s="73"/>
+      <c r="AY26" s="73"/>
+      <c r="AZ26" s="73"/>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="62"/>
-      <c r="AZ27" s="62"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="73"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="73"/>
+      <c r="AS27" s="73"/>
+      <c r="AT27" s="73"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="73"/>
+      <c r="AW27" s="73"/>
+      <c r="AX27" s="73"/>
+      <c r="AY27" s="73"/>
+      <c r="AZ27" s="73"/>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="62"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="62"/>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="62"/>
-      <c r="AL28" s="62"/>
-      <c r="AM28" s="62"/>
-      <c r="AN28" s="62"/>
-      <c r="AO28" s="62"/>
-      <c r="AP28" s="62"/>
-      <c r="AQ28" s="62"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="62"/>
-      <c r="AT28" s="62"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="62"/>
-      <c r="AX28" s="62"/>
-      <c r="AY28" s="62"/>
-      <c r="AZ28" s="62"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="73"/>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="73"/>
+      <c r="AS28" s="73"/>
+      <c r="AT28" s="73"/>
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="73"/>
+      <c r="AW28" s="73"/>
+      <c r="AX28" s="73"/>
+      <c r="AY28" s="73"/>
+      <c r="AZ28" s="73"/>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="62"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="62"/>
-      <c r="AX29" s="62"/>
-      <c r="AY29" s="62"/>
-      <c r="AZ29" s="62"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="73"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="73"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="73"/>
+      <c r="AT29" s="73"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="73"/>
+      <c r="AW29" s="73"/>
+      <c r="AX29" s="73"/>
+      <c r="AY29" s="73"/>
+      <c r="AZ29" s="73"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="62"/>
-      <c r="AX30" s="62"/>
-      <c r="AY30" s="62"/>
-      <c r="AZ30" s="62"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="73"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="73"/>
+      <c r="AS30" s="73"/>
+      <c r="AT30" s="73"/>
+      <c r="AU30" s="73"/>
+      <c r="AV30" s="73"/>
+      <c r="AW30" s="73"/>
+      <c r="AX30" s="73"/>
+      <c r="AY30" s="73"/>
+      <c r="AZ30" s="73"/>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="62"/>
-      <c r="AN31" s="62"/>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="62"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="62"/>
-      <c r="AX31" s="62"/>
-      <c r="AY31" s="62"/>
-      <c r="AZ31" s="62"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="73"/>
+      <c r="AX31" s="73"/>
+      <c r="AY31" s="73"/>
+      <c r="AZ31" s="73"/>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="62"/>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="62"/>
-      <c r="AX32" s="62"/>
-      <c r="AY32" s="62"/>
-      <c r="AZ32" s="62"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="73"/>
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="73"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="73"/>
+      <c r="AP32" s="73"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="73"/>
+      <c r="AS32" s="73"/>
+      <c r="AT32" s="73"/>
+      <c r="AU32" s="73"/>
+      <c r="AV32" s="73"/>
+      <c r="AW32" s="73"/>
+      <c r="AX32" s="73"/>
+      <c r="AY32" s="73"/>
+      <c r="AZ32" s="73"/>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="62"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="62"/>
-      <c r="AL33" s="62"/>
-      <c r="AM33" s="62"/>
-      <c r="AN33" s="62"/>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="62"/>
-      <c r="AW33" s="62"/>
-      <c r="AX33" s="62"/>
-      <c r="AY33" s="62"/>
-      <c r="AZ33" s="62"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="73"/>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="73"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="73"/>
+      <c r="AT33" s="73"/>
+      <c r="AU33" s="73"/>
+      <c r="AV33" s="73"/>
+      <c r="AW33" s="73"/>
+      <c r="AX33" s="73"/>
+      <c r="AY33" s="73"/>
+      <c r="AZ33" s="73"/>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="62"/>
-      <c r="AJ34" s="62"/>
-      <c r="AK34" s="62"/>
-      <c r="AL34" s="62"/>
-      <c r="AM34" s="62"/>
-      <c r="AN34" s="62"/>
-      <c r="AO34" s="62"/>
-      <c r="AP34" s="62"/>
-      <c r="AQ34" s="62"/>
-      <c r="AR34" s="62"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="62"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="62"/>
-      <c r="AX34" s="62"/>
-      <c r="AY34" s="62"/>
-      <c r="AZ34" s="62"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="73"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="73"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="62"/>
-      <c r="AI35" s="62"/>
-      <c r="AJ35" s="62"/>
-      <c r="AK35" s="62"/>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="62"/>
-      <c r="AN35" s="62"/>
-      <c r="AO35" s="62"/>
-      <c r="AP35" s="62"/>
-      <c r="AQ35" s="62"/>
-      <c r="AR35" s="62"/>
-      <c r="AS35" s="62"/>
-      <c r="AT35" s="62"/>
-      <c r="AU35" s="62"/>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="62"/>
-      <c r="AX35" s="62"/>
-      <c r="AY35" s="62"/>
-      <c r="AZ35" s="62"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="73"/>
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="73"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="73"/>
+      <c r="AN35" s="73"/>
+      <c r="AO35" s="73"/>
+      <c r="AP35" s="73"/>
+      <c r="AQ35" s="73"/>
+      <c r="AR35" s="73"/>
+      <c r="AS35" s="73"/>
+      <c r="AT35" s="73"/>
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="73"/>
+      <c r="AY35" s="73"/>
+      <c r="AZ35" s="73"/>
     </row>
     <row r="36" spans="1:52">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
-      <c r="AH36" s="62"/>
-      <c r="AI36" s="62"/>
-      <c r="AJ36" s="62"/>
-      <c r="AK36" s="62"/>
-      <c r="AL36" s="62"/>
-      <c r="AM36" s="62"/>
-      <c r="AN36" s="62"/>
-      <c r="AO36" s="62"/>
-      <c r="AP36" s="62"/>
-      <c r="AQ36" s="62"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="62"/>
-      <c r="AT36" s="62"/>
-      <c r="AU36" s="62"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="62"/>
-      <c r="AX36" s="62"/>
-      <c r="AY36" s="62"/>
-      <c r="AZ36" s="62"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="73"/>
+      <c r="AI36" s="73"/>
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="73"/>
+      <c r="AL36" s="73"/>
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="73"/>
+      <c r="AO36" s="73"/>
+      <c r="AP36" s="73"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="73"/>
+      <c r="AT36" s="73"/>
+      <c r="AU36" s="73"/>
+      <c r="AV36" s="73"/>
+      <c r="AW36" s="73"/>
+      <c r="AX36" s="73"/>
+      <c r="AY36" s="73"/>
+      <c r="AZ36" s="73"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="62"/>
-      <c r="AH37" s="62"/>
-      <c r="AI37" s="62"/>
-      <c r="AJ37" s="62"/>
-      <c r="AK37" s="62"/>
-      <c r="AL37" s="62"/>
-      <c r="AM37" s="62"/>
-      <c r="AN37" s="62"/>
-      <c r="AO37" s="62"/>
-      <c r="AP37" s="62"/>
-      <c r="AQ37" s="62"/>
-      <c r="AR37" s="62"/>
-      <c r="AS37" s="62"/>
-      <c r="AT37" s="62"/>
-      <c r="AU37" s="62"/>
-      <c r="AV37" s="62"/>
-      <c r="AW37" s="62"/>
-      <c r="AX37" s="62"/>
-      <c r="AY37" s="62"/>
-      <c r="AZ37" s="62"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="73"/>
+      <c r="AN37" s="73"/>
+      <c r="AO37" s="73"/>
+      <c r="AP37" s="73"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="73"/>
+      <c r="AT37" s="73"/>
+      <c r="AU37" s="73"/>
+      <c r="AV37" s="73"/>
+      <c r="AW37" s="73"/>
+      <c r="AX37" s="73"/>
+      <c r="AY37" s="73"/>
+      <c r="AZ37" s="73"/>
     </row>
     <row r="38" spans="1:52">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62"/>
-      <c r="AH38" s="62"/>
-      <c r="AI38" s="62"/>
-      <c r="AJ38" s="62"/>
-      <c r="AK38" s="62"/>
-      <c r="AL38" s="62"/>
-      <c r="AM38" s="62"/>
-      <c r="AN38" s="62"/>
-      <c r="AO38" s="62"/>
-      <c r="AP38" s="62"/>
-      <c r="AQ38" s="62"/>
-      <c r="AR38" s="62"/>
-      <c r="AS38" s="62"/>
-      <c r="AT38" s="62"/>
-      <c r="AU38" s="62"/>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="62"/>
-      <c r="AX38" s="62"/>
-      <c r="AY38" s="62"/>
-      <c r="AZ38" s="62"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="73"/>
+      <c r="AJ38" s="73"/>
+      <c r="AK38" s="73"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="73"/>
+      <c r="AN38" s="73"/>
+      <c r="AO38" s="73"/>
+      <c r="AP38" s="73"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="73"/>
+      <c r="AS38" s="73"/>
+      <c r="AT38" s="73"/>
+      <c r="AU38" s="73"/>
+      <c r="AV38" s="73"/>
+      <c r="AW38" s="73"/>
+      <c r="AX38" s="73"/>
+      <c r="AY38" s="73"/>
+      <c r="AZ38" s="73"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="62"/>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="62"/>
-      <c r="AH39" s="62"/>
-      <c r="AI39" s="62"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="62"/>
-      <c r="AL39" s="62"/>
-      <c r="AM39" s="62"/>
-      <c r="AN39" s="62"/>
-      <c r="AO39" s="62"/>
-      <c r="AP39" s="62"/>
-      <c r="AQ39" s="62"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="62"/>
-      <c r="AT39" s="62"/>
-      <c r="AU39" s="62"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="62"/>
-      <c r="AX39" s="62"/>
-      <c r="AY39" s="62"/>
-      <c r="AZ39" s="62"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="73"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="73"/>
+      <c r="AF39" s="73"/>
+      <c r="AG39" s="73"/>
+      <c r="AH39" s="73"/>
+      <c r="AI39" s="73"/>
+      <c r="AJ39" s="73"/>
+      <c r="AK39" s="73"/>
+      <c r="AL39" s="73"/>
+      <c r="AM39" s="73"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="73"/>
+      <c r="AP39" s="73"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="73"/>
+      <c r="AT39" s="73"/>
+      <c r="AU39" s="73"/>
+      <c r="AV39" s="73"/>
+      <c r="AW39" s="73"/>
+      <c r="AX39" s="73"/>
+      <c r="AY39" s="73"/>
+      <c r="AZ39" s="73"/>
     </row>
     <row r="40" spans="1:52">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62"/>
-      <c r="AH40" s="62"/>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="62"/>
-      <c r="AL40" s="62"/>
-      <c r="AM40" s="62"/>
-      <c r="AN40" s="62"/>
-      <c r="AO40" s="62"/>
-      <c r="AP40" s="62"/>
-      <c r="AQ40" s="62"/>
-      <c r="AR40" s="62"/>
-      <c r="AS40" s="62"/>
-      <c r="AT40" s="62"/>
-      <c r="AU40" s="62"/>
-      <c r="AV40" s="62"/>
-      <c r="AW40" s="62"/>
-      <c r="AX40" s="62"/>
-      <c r="AY40" s="62"/>
-      <c r="AZ40" s="62"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
+      <c r="AB40" s="73"/>
+      <c r="AC40" s="73"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="73"/>
+      <c r="AF40" s="73"/>
+      <c r="AG40" s="73"/>
+      <c r="AH40" s="73"/>
+      <c r="AI40" s="73"/>
+      <c r="AJ40" s="73"/>
+      <c r="AK40" s="73"/>
+      <c r="AL40" s="73"/>
+      <c r="AM40" s="73"/>
+      <c r="AN40" s="73"/>
+      <c r="AO40" s="73"/>
+      <c r="AP40" s="73"/>
+      <c r="AQ40" s="73"/>
+      <c r="AR40" s="73"/>
+      <c r="AS40" s="73"/>
+      <c r="AT40" s="73"/>
+      <c r="AU40" s="73"/>
+      <c r="AV40" s="73"/>
+      <c r="AW40" s="73"/>
+      <c r="AX40" s="73"/>
+      <c r="AY40" s="73"/>
+      <c r="AZ40" s="73"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="62"/>
-      <c r="AD41" s="62"/>
-      <c r="AE41" s="62"/>
-      <c r="AF41" s="62"/>
-      <c r="AG41" s="62"/>
-      <c r="AH41" s="62"/>
-      <c r="AI41" s="62"/>
-      <c r="AJ41" s="62"/>
-      <c r="AK41" s="62"/>
-      <c r="AL41" s="62"/>
-      <c r="AM41" s="62"/>
-      <c r="AN41" s="62"/>
-      <c r="AO41" s="62"/>
-      <c r="AP41" s="62"/>
-      <c r="AQ41" s="62"/>
-      <c r="AR41" s="62"/>
-      <c r="AS41" s="62"/>
-      <c r="AT41" s="62"/>
-      <c r="AU41" s="62"/>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="62"/>
-      <c r="AX41" s="62"/>
-      <c r="AY41" s="62"/>
-      <c r="AZ41" s="62"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="73"/>
+      <c r="AJ41" s="73"/>
+      <c r="AK41" s="73"/>
+      <c r="AL41" s="73"/>
+      <c r="AM41" s="73"/>
+      <c r="AN41" s="73"/>
+      <c r="AO41" s="73"/>
+      <c r="AP41" s="73"/>
+      <c r="AQ41" s="73"/>
+      <c r="AR41" s="73"/>
+      <c r="AS41" s="73"/>
+      <c r="AT41" s="73"/>
+      <c r="AU41" s="73"/>
+      <c r="AV41" s="73"/>
+      <c r="AW41" s="73"/>
+      <c r="AX41" s="73"/>
+      <c r="AY41" s="73"/>
+      <c r="AZ41" s="73"/>
     </row>
     <row r="42" spans="1:52">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="62"/>
-      <c r="AG42" s="62"/>
-      <c r="AH42" s="62"/>
-      <c r="AI42" s="62"/>
-      <c r="AJ42" s="62"/>
-      <c r="AK42" s="62"/>
-      <c r="AL42" s="62"/>
-      <c r="AM42" s="62"/>
-      <c r="AN42" s="62"/>
-      <c r="AO42" s="62"/>
-      <c r="AP42" s="62"/>
-      <c r="AQ42" s="62"/>
-      <c r="AR42" s="62"/>
-      <c r="AS42" s="62"/>
-      <c r="AT42" s="62"/>
-      <c r="AU42" s="62"/>
-      <c r="AV42" s="62"/>
-      <c r="AW42" s="62"/>
-      <c r="AX42" s="62"/>
-      <c r="AY42" s="62"/>
-      <c r="AZ42" s="62"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="73"/>
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="73"/>
+      <c r="AE42" s="73"/>
+      <c r="AF42" s="73"/>
+      <c r="AG42" s="73"/>
+      <c r="AH42" s="73"/>
+      <c r="AI42" s="73"/>
+      <c r="AJ42" s="73"/>
+      <c r="AK42" s="73"/>
+      <c r="AL42" s="73"/>
+      <c r="AM42" s="73"/>
+      <c r="AN42" s="73"/>
+      <c r="AO42" s="73"/>
+      <c r="AP42" s="73"/>
+      <c r="AQ42" s="73"/>
+      <c r="AR42" s="73"/>
+      <c r="AS42" s="73"/>
+      <c r="AT42" s="73"/>
+      <c r="AU42" s="73"/>
+      <c r="AV42" s="73"/>
+      <c r="AW42" s="73"/>
+      <c r="AX42" s="73"/>
+      <c r="AY42" s="73"/>
+      <c r="AZ42" s="73"/>
     </row>
     <row r="43" spans="1:52">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="62"/>
-      <c r="AN43" s="62"/>
-      <c r="AO43" s="62"/>
-      <c r="AP43" s="62"/>
-      <c r="AQ43" s="62"/>
-      <c r="AR43" s="62"/>
-      <c r="AS43" s="62"/>
-      <c r="AT43" s="62"/>
-      <c r="AU43" s="62"/>
-      <c r="AV43" s="62"/>
-      <c r="AW43" s="62"/>
-      <c r="AX43" s="62"/>
-      <c r="AY43" s="62"/>
-      <c r="AZ43" s="62"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="73"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="73"/>
+      <c r="AI43" s="73"/>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="73"/>
+      <c r="AL43" s="73"/>
+      <c r="AM43" s="73"/>
+      <c r="AN43" s="73"/>
+      <c r="AO43" s="73"/>
+      <c r="AP43" s="73"/>
+      <c r="AQ43" s="73"/>
+      <c r="AR43" s="73"/>
+      <c r="AS43" s="73"/>
+      <c r="AT43" s="73"/>
+      <c r="AU43" s="73"/>
+      <c r="AV43" s="73"/>
+      <c r="AW43" s="73"/>
+      <c r="AX43" s="73"/>
+      <c r="AY43" s="73"/>
+      <c r="AZ43" s="73"/>
     </row>
     <row r="44" spans="1:52">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="62"/>
-      <c r="AX44" s="62"/>
-      <c r="AY44" s="62"/>
-      <c r="AZ44" s="62"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="73"/>
+      <c r="AG44" s="73"/>
+      <c r="AH44" s="73"/>
+      <c r="AI44" s="73"/>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="73"/>
+      <c r="AL44" s="73"/>
+      <c r="AM44" s="73"/>
+      <c r="AN44" s="73"/>
+      <c r="AO44" s="73"/>
+      <c r="AP44" s="73"/>
+      <c r="AQ44" s="73"/>
+      <c r="AR44" s="73"/>
+      <c r="AS44" s="73"/>
+      <c r="AT44" s="73"/>
+      <c r="AU44" s="73"/>
+      <c r="AV44" s="73"/>
+      <c r="AW44" s="73"/>
+      <c r="AX44" s="73"/>
+      <c r="AY44" s="73"/>
+      <c r="AZ44" s="73"/>
     </row>
     <row r="45" spans="1:52">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="62"/>
-      <c r="AH45" s="62"/>
-      <c r="AI45" s="62"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="62"/>
-      <c r="AL45" s="62"/>
-      <c r="AM45" s="62"/>
-      <c r="AN45" s="62"/>
-      <c r="AO45" s="62"/>
-      <c r="AP45" s="62"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
-      <c r="AT45" s="62"/>
-      <c r="AU45" s="62"/>
-      <c r="AV45" s="62"/>
-      <c r="AW45" s="62"/>
-      <c r="AX45" s="62"/>
-      <c r="AY45" s="62"/>
-      <c r="AZ45" s="62"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="73"/>
+      <c r="AL45" s="73"/>
+      <c r="AM45" s="73"/>
+      <c r="AN45" s="73"/>
+      <c r="AO45" s="73"/>
+      <c r="AP45" s="73"/>
+      <c r="AQ45" s="73"/>
+      <c r="AR45" s="73"/>
+      <c r="AS45" s="73"/>
+      <c r="AT45" s="73"/>
+      <c r="AU45" s="73"/>
+      <c r="AV45" s="73"/>
+      <c r="AW45" s="73"/>
+      <c r="AX45" s="73"/>
+      <c r="AY45" s="73"/>
+      <c r="AZ45" s="73"/>
     </row>
     <row r="46" spans="1:52">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="62"/>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="62"/>
-      <c r="AA46" s="62"/>
-      <c r="AB46" s="62"/>
-      <c r="AC46" s="62"/>
-      <c r="AD46" s="62"/>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="62"/>
-      <c r="AG46" s="62"/>
-      <c r="AH46" s="62"/>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="62"/>
-      <c r="AL46" s="62"/>
-      <c r="AM46" s="62"/>
-      <c r="AN46" s="62"/>
-      <c r="AO46" s="62"/>
-      <c r="AP46" s="62"/>
-      <c r="AQ46" s="62"/>
-      <c r="AR46" s="62"/>
-      <c r="AS46" s="62"/>
-      <c r="AT46" s="62"/>
-      <c r="AU46" s="62"/>
-      <c r="AV46" s="62"/>
-      <c r="AW46" s="62"/>
-      <c r="AX46" s="62"/>
-      <c r="AY46" s="62"/>
-      <c r="AZ46" s="62"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="73"/>
+      <c r="AC46" s="73"/>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="73"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="73"/>
+      <c r="AH46" s="73"/>
+      <c r="AI46" s="73"/>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="73"/>
+      <c r="AL46" s="73"/>
+      <c r="AM46" s="73"/>
+      <c r="AN46" s="73"/>
+      <c r="AO46" s="73"/>
+      <c r="AP46" s="73"/>
+      <c r="AQ46" s="73"/>
+      <c r="AR46" s="73"/>
+      <c r="AS46" s="73"/>
+      <c r="AT46" s="73"/>
+      <c r="AU46" s="73"/>
+      <c r="AV46" s="73"/>
+      <c r="AW46" s="73"/>
+      <c r="AX46" s="73"/>
+      <c r="AY46" s="73"/>
+      <c r="AZ46" s="73"/>
     </row>
     <row r="47" spans="1:52">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="62"/>
-      <c r="V47" s="62"/>
-      <c r="W47" s="62"/>
-      <c r="X47" s="62"/>
-      <c r="Y47" s="62"/>
-      <c r="Z47" s="62"/>
-      <c r="AA47" s="62"/>
-      <c r="AB47" s="62"/>
-      <c r="AC47" s="62"/>
-      <c r="AD47" s="62"/>
-      <c r="AE47" s="62"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="62"/>
-      <c r="AJ47" s="62"/>
-      <c r="AK47" s="62"/>
-      <c r="AL47" s="62"/>
-      <c r="AM47" s="62"/>
-      <c r="AN47" s="62"/>
-      <c r="AO47" s="62"/>
-      <c r="AP47" s="62"/>
-      <c r="AQ47" s="62"/>
-      <c r="AR47" s="62"/>
-      <c r="AS47" s="62"/>
-      <c r="AT47" s="62"/>
-      <c r="AU47" s="62"/>
-      <c r="AV47" s="62"/>
-      <c r="AW47" s="62"/>
-      <c r="AX47" s="62"/>
-      <c r="AY47" s="62"/>
-      <c r="AZ47" s="62"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
+      <c r="AB47" s="73"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="73"/>
+      <c r="AM47" s="73"/>
+      <c r="AN47" s="73"/>
+      <c r="AO47" s="73"/>
+      <c r="AP47" s="73"/>
+      <c r="AQ47" s="73"/>
+      <c r="AR47" s="73"/>
+      <c r="AS47" s="73"/>
+      <c r="AT47" s="73"/>
+      <c r="AU47" s="73"/>
+      <c r="AV47" s="73"/>
+      <c r="AW47" s="73"/>
+      <c r="AX47" s="73"/>
+      <c r="AY47" s="73"/>
+      <c r="AZ47" s="73"/>
     </row>
     <row r="48" spans="1:52">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="62"/>
-      <c r="Y48" s="62"/>
-      <c r="Z48" s="62"/>
-      <c r="AA48" s="62"/>
-      <c r="AB48" s="62"/>
-      <c r="AC48" s="62"/>
-      <c r="AD48" s="62"/>
-      <c r="AE48" s="62"/>
-      <c r="AF48" s="62"/>
-      <c r="AG48" s="62"/>
-      <c r="AH48" s="62"/>
-      <c r="AI48" s="62"/>
-      <c r="AJ48" s="62"/>
-      <c r="AK48" s="62"/>
-      <c r="AL48" s="62"/>
-      <c r="AM48" s="62"/>
-      <c r="AN48" s="62"/>
-      <c r="AO48" s="62"/>
-      <c r="AP48" s="62"/>
-      <c r="AQ48" s="62"/>
-      <c r="AR48" s="62"/>
-      <c r="AS48" s="62"/>
-      <c r="AT48" s="62"/>
-      <c r="AU48" s="62"/>
-      <c r="AV48" s="62"/>
-      <c r="AW48" s="62"/>
-      <c r="AX48" s="62"/>
-      <c r="AY48" s="62"/>
-      <c r="AZ48" s="62"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="73"/>
+      <c r="AA48" s="73"/>
+      <c r="AB48" s="73"/>
+      <c r="AC48" s="73"/>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="73"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="73"/>
+      <c r="AI48" s="73"/>
+      <c r="AJ48" s="73"/>
+      <c r="AK48" s="73"/>
+      <c r="AL48" s="73"/>
+      <c r="AM48" s="73"/>
+      <c r="AN48" s="73"/>
+      <c r="AO48" s="73"/>
+      <c r="AP48" s="73"/>
+      <c r="AQ48" s="73"/>
+      <c r="AR48" s="73"/>
+      <c r="AS48" s="73"/>
+      <c r="AT48" s="73"/>
+      <c r="AU48" s="73"/>
+      <c r="AV48" s="73"/>
+      <c r="AW48" s="73"/>
+      <c r="AX48" s="73"/>
+      <c r="AY48" s="73"/>
+      <c r="AZ48" s="73"/>
     </row>
     <row r="49" spans="1:52">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="Y49" s="62"/>
-      <c r="Z49" s="62"/>
-      <c r="AA49" s="62"/>
-      <c r="AB49" s="62"/>
-      <c r="AC49" s="62"/>
-      <c r="AD49" s="62"/>
-      <c r="AE49" s="62"/>
-      <c r="AF49" s="62"/>
-      <c r="AG49" s="62"/>
-      <c r="AH49" s="62"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="62"/>
-      <c r="AK49" s="62"/>
-      <c r="AL49" s="62"/>
-      <c r="AM49" s="62"/>
-      <c r="AN49" s="62"/>
-      <c r="AO49" s="62"/>
-      <c r="AP49" s="62"/>
-      <c r="AQ49" s="62"/>
-      <c r="AR49" s="62"/>
-      <c r="AS49" s="62"/>
-      <c r="AT49" s="62"/>
-      <c r="AU49" s="62"/>
-      <c r="AV49" s="62"/>
-      <c r="AW49" s="62"/>
-      <c r="AX49" s="62"/>
-      <c r="AY49" s="62"/>
-      <c r="AZ49" s="62"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="73"/>
+      <c r="AB49" s="73"/>
+      <c r="AC49" s="73"/>
+      <c r="AD49" s="73"/>
+      <c r="AE49" s="73"/>
+      <c r="AF49" s="73"/>
+      <c r="AG49" s="73"/>
+      <c r="AH49" s="73"/>
+      <c r="AI49" s="73"/>
+      <c r="AJ49" s="73"/>
+      <c r="AK49" s="73"/>
+      <c r="AL49" s="73"/>
+      <c r="AM49" s="73"/>
+      <c r="AN49" s="73"/>
+      <c r="AO49" s="73"/>
+      <c r="AP49" s="73"/>
+      <c r="AQ49" s="73"/>
+      <c r="AR49" s="73"/>
+      <c r="AS49" s="73"/>
+      <c r="AT49" s="73"/>
+      <c r="AU49" s="73"/>
+      <c r="AV49" s="73"/>
+      <c r="AW49" s="73"/>
+      <c r="AX49" s="73"/>
+      <c r="AY49" s="73"/>
+      <c r="AZ49" s="73"/>
     </row>
     <row r="50" spans="1:52">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="62"/>
-      <c r="AB50" s="62"/>
-      <c r="AC50" s="62"/>
-      <c r="AD50" s="62"/>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="62"/>
-      <c r="AI50" s="62"/>
-      <c r="AJ50" s="62"/>
-      <c r="AK50" s="62"/>
-      <c r="AL50" s="62"/>
-      <c r="AM50" s="62"/>
-      <c r="AN50" s="62"/>
-      <c r="AO50" s="62"/>
-      <c r="AP50" s="62"/>
-      <c r="AQ50" s="62"/>
-      <c r="AR50" s="62"/>
-      <c r="AS50" s="62"/>
-      <c r="AT50" s="62"/>
-      <c r="AU50" s="62"/>
-      <c r="AV50" s="62"/>
-      <c r="AW50" s="62"/>
-      <c r="AX50" s="62"/>
-      <c r="AY50" s="62"/>
-      <c r="AZ50" s="62"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="73"/>
+      <c r="AA50" s="73"/>
+      <c r="AB50" s="73"/>
+      <c r="AC50" s="73"/>
+      <c r="AD50" s="73"/>
+      <c r="AE50" s="73"/>
+      <c r="AF50" s="73"/>
+      <c r="AG50" s="73"/>
+      <c r="AH50" s="73"/>
+      <c r="AI50" s="73"/>
+      <c r="AJ50" s="73"/>
+      <c r="AK50" s="73"/>
+      <c r="AL50" s="73"/>
+      <c r="AM50" s="73"/>
+      <c r="AN50" s="73"/>
+      <c r="AO50" s="73"/>
+      <c r="AP50" s="73"/>
+      <c r="AQ50" s="73"/>
+      <c r="AR50" s="73"/>
+      <c r="AS50" s="73"/>
+      <c r="AT50" s="73"/>
+      <c r="AU50" s="73"/>
+      <c r="AV50" s="73"/>
+      <c r="AW50" s="73"/>
+      <c r="AX50" s="73"/>
+      <c r="AY50" s="73"/>
+      <c r="AZ50" s="73"/>
     </row>
     <row r="51" spans="1:52">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62"/>
-      <c r="AB51" s="62"/>
-      <c r="AC51" s="62"/>
-      <c r="AD51" s="62"/>
-      <c r="AE51" s="62"/>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="62"/>
-      <c r="AI51" s="62"/>
-      <c r="AJ51" s="62"/>
-      <c r="AK51" s="62"/>
-      <c r="AL51" s="62"/>
-      <c r="AM51" s="62"/>
-      <c r="AN51" s="62"/>
-      <c r="AO51" s="62"/>
-      <c r="AP51" s="62"/>
-      <c r="AQ51" s="62"/>
-      <c r="AR51" s="62"/>
-      <c r="AS51" s="62"/>
-      <c r="AT51" s="62"/>
-      <c r="AU51" s="62"/>
-      <c r="AV51" s="62"/>
-      <c r="AW51" s="62"/>
-      <c r="AX51" s="62"/>
-      <c r="AY51" s="62"/>
-      <c r="AZ51" s="62"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="73"/>
+      <c r="AA51" s="73"/>
+      <c r="AB51" s="73"/>
+      <c r="AC51" s="73"/>
+      <c r="AD51" s="73"/>
+      <c r="AE51" s="73"/>
+      <c r="AF51" s="73"/>
+      <c r="AG51" s="73"/>
+      <c r="AH51" s="73"/>
+      <c r="AI51" s="73"/>
+      <c r="AJ51" s="73"/>
+      <c r="AK51" s="73"/>
+      <c r="AL51" s="73"/>
+      <c r="AM51" s="73"/>
+      <c r="AN51" s="73"/>
+      <c r="AO51" s="73"/>
+      <c r="AP51" s="73"/>
+      <c r="AQ51" s="73"/>
+      <c r="AR51" s="73"/>
+      <c r="AS51" s="73"/>
+      <c r="AT51" s="73"/>
+      <c r="AU51" s="73"/>
+      <c r="AV51" s="73"/>
+      <c r="AW51" s="73"/>
+      <c r="AX51" s="73"/>
+      <c r="AY51" s="73"/>
+      <c r="AZ51" s="73"/>
     </row>
     <row r="52" spans="1:52">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="66"/>
-      <c r="S52" s="66"/>
-      <c r="T52" s="66"/>
-      <c r="U52" s="66"/>
-      <c r="V52" s="66"/>
-      <c r="W52" s="66"/>
-      <c r="X52" s="66"/>
-      <c r="Y52" s="66"/>
-      <c r="Z52" s="66"/>
-      <c r="AA52" s="66"/>
-      <c r="AB52" s="66"/>
-      <c r="AC52" s="66"/>
-      <c r="AD52" s="66"/>
-      <c r="AE52" s="66"/>
-      <c r="AF52" s="66"/>
-      <c r="AG52" s="66"/>
-      <c r="AH52" s="66"/>
-      <c r="AI52" s="66"/>
-      <c r="AJ52" s="66"/>
-      <c r="AK52" s="66"/>
-      <c r="AL52" s="66"/>
-      <c r="AM52" s="66"/>
-      <c r="AN52" s="66"/>
-      <c r="AO52" s="66"/>
-      <c r="AP52" s="66"/>
-      <c r="AQ52" s="66"/>
-      <c r="AR52" s="66"/>
-      <c r="AS52" s="66"/>
-      <c r="AT52" s="66"/>
-      <c r="AU52" s="66"/>
-      <c r="AV52" s="66"/>
-      <c r="AW52" s="66"/>
-      <c r="AX52" s="66"/>
-      <c r="AY52" s="66"/>
-      <c r="AZ52" s="66"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
+      <c r="U52" s="77"/>
+      <c r="V52" s="77"/>
+      <c r="W52" s="77"/>
+      <c r="X52" s="77"/>
+      <c r="Y52" s="77"/>
+      <c r="Z52" s="77"/>
+      <c r="AA52" s="77"/>
+      <c r="AB52" s="77"/>
+      <c r="AC52" s="77"/>
+      <c r="AD52" s="77"/>
+      <c r="AE52" s="77"/>
+      <c r="AF52" s="77"/>
+      <c r="AG52" s="77"/>
+      <c r="AH52" s="77"/>
+      <c r="AI52" s="77"/>
+      <c r="AJ52" s="77"/>
+      <c r="AK52" s="77"/>
+      <c r="AL52" s="77"/>
+      <c r="AM52" s="77"/>
+      <c r="AN52" s="77"/>
+      <c r="AO52" s="77"/>
+      <c r="AP52" s="77"/>
+      <c r="AQ52" s="77"/>
+      <c r="AR52" s="77"/>
+      <c r="AS52" s="77"/>
+      <c r="AT52" s="77"/>
+      <c r="AU52" s="77"/>
+      <c r="AV52" s="77"/>
+      <c r="AW52" s="77"/>
+      <c r="AX52" s="77"/>
+      <c r="AY52" s="77"/>
+      <c r="AZ52" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:T51"/>
+    <mergeCell ref="U51:AZ51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:T52"/>
+    <mergeCell ref="U52:AZ52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:T49"/>
+    <mergeCell ref="U49:AZ49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:T50"/>
+    <mergeCell ref="U50:AZ50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="U47:AZ47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:T48"/>
+    <mergeCell ref="U48:AZ48"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
     <mergeCell ref="A1:AL2"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AQ1:AZ1"/>
@@ -8199,246 +8439,6 @@
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
     <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="U47:AZ47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:T48"/>
-    <mergeCell ref="U48:AZ48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:T49"/>
-    <mergeCell ref="U49:AZ49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:T50"/>
-    <mergeCell ref="U50:AZ50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:T51"/>
-    <mergeCell ref="U51:AZ51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:T52"/>
-    <mergeCell ref="U52:AZ52"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8453,7 +8453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A108" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
@@ -9563,7 +9565,7 @@
       <c r="Y23" s="30"/>
       <c r="Z23" s="30"/>
       <c r="AA23" s="29" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
@@ -9772,7 +9774,7 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -9829,7 +9831,7 @@
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -9894,7 +9896,7 @@
         <v>45</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
@@ -9951,7 +9953,7 @@
         <v>45</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
@@ -10065,7 +10067,7 @@
         <v>45</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
@@ -10280,7 +10282,7 @@
         <v>61</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -10506,7 +10508,7 @@
         <v>63</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
@@ -10563,7 +10565,7 @@
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -10571,7 +10573,7 @@
         <v>45</v>
       </c>
       <c r="L41" s="28" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
@@ -10628,7 +10630,7 @@
         <v>45</v>
       </c>
       <c r="L42" s="28" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
@@ -10685,7 +10687,7 @@
         <v>45</v>
       </c>
       <c r="L43" s="28" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
@@ -10742,7 +10744,7 @@
         <v>45</v>
       </c>
       <c r="L44" s="28" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
@@ -10799,7 +10801,7 @@
         <v>45</v>
       </c>
       <c r="L45" s="28" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
@@ -10847,7 +10849,7 @@
       <c r="A46" s="25"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -10959,7 +10961,7 @@
         <v>81</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -11085,7 +11087,7 @@
         <v>40</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
@@ -11195,7 +11197,7 @@
         <v>67</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -11306,7 +11308,7 @@
         <v>82</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
@@ -11432,7 +11434,7 @@
         <v>40</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
@@ -11542,7 +11544,7 @@
         <v>67</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -11736,7 +11738,7 @@
       <c r="Y61" s="30"/>
       <c r="Z61" s="31"/>
       <c r="AA61" s="29" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AB61" s="30"/>
       <c r="AC61" s="30"/>
@@ -12001,7 +12003,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
@@ -12173,7 +12175,7 @@
         <v>61</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
@@ -12232,7 +12234,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
@@ -12288,7 +12290,7 @@
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -12296,7 +12298,7 @@
         <v>45</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M71" s="21"/>
       <c r="N71" s="21"/>
@@ -12353,7 +12355,7 @@
         <v>45</v>
       </c>
       <c r="K72" s="28" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
@@ -12410,7 +12412,7 @@
         <v>45</v>
       </c>
       <c r="K73" s="28" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M73" s="21"/>
       <c r="N73" s="21"/>
@@ -12467,7 +12469,7 @@
         <v>45</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M74" s="21"/>
       <c r="N74" s="21"/>
@@ -12524,7 +12526,7 @@
         <v>45</v>
       </c>
       <c r="K75" s="28" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M75" s="21"/>
       <c r="N75" s="21"/>
@@ -12629,7 +12631,7 @@
         <v>67</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -12685,7 +12687,7 @@
       <c r="C78" s="21"/>
       <c r="E78" s="21"/>
       <c r="F78" s="28" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>76</v>
@@ -12750,7 +12752,7 @@
         <v>40</v>
       </c>
       <c r="J79" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
@@ -12854,10 +12856,10 @@
       <c r="C81" s="21"/>
       <c r="E81" s="21"/>
       <c r="F81" s="28" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
@@ -12966,7 +12968,7 @@
         <v>68</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
@@ -13022,7 +13024,7 @@
       <c r="C84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="28" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G84" s="21" t="s">
         <v>76</v>
@@ -13087,7 +13089,7 @@
         <v>40</v>
       </c>
       <c r="J85" s="21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K85" s="21"/>
       <c r="L85" s="21"/>
@@ -13191,10 +13193,10 @@
       <c r="C87" s="21"/>
       <c r="E87" s="21"/>
       <c r="F87" s="28" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
@@ -13477,7 +13479,7 @@
         <v>34</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
@@ -13535,7 +13537,7 @@
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
@@ -13821,7 +13823,7 @@
       <c r="E98" s="30"/>
       <c r="F98" s="31"/>
       <c r="G98" s="29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H98" s="30"/>
       <c r="I98" s="30"/>
@@ -13833,7 +13835,7 @@
       <c r="O98" s="30"/>
       <c r="P98" s="31"/>
       <c r="Q98" s="29" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="R98" s="30"/>
       <c r="S98" s="30"/>
@@ -13845,7 +13847,7 @@
       <c r="Y98" s="30"/>
       <c r="Z98" s="31"/>
       <c r="AA98" s="29" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AB98" s="30"/>
       <c r="AC98" s="30"/>
@@ -13868,7 +13870,7 @@
       <c r="AT98" s="30"/>
       <c r="AU98" s="31"/>
       <c r="AV98" s="29" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AW98" s="30"/>
       <c r="AX98" s="30"/>
@@ -13934,10 +13936,10 @@
     <row r="100" spans="1:53">
       <c r="A100" s="25"/>
       <c r="B100" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
@@ -14110,7 +14112,7 @@
       <c r="E103" s="30"/>
       <c r="F103" s="31"/>
       <c r="G103" s="29" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H103" s="30"/>
       <c r="I103" s="30"/>
@@ -14122,7 +14124,7 @@
       <c r="O103" s="30"/>
       <c r="P103" s="31"/>
       <c r="Q103" s="29" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="R103" s="30"/>
       <c r="S103" s="30"/>
@@ -14134,7 +14136,7 @@
       <c r="Y103" s="30"/>
       <c r="Z103" s="31"/>
       <c r="AA103" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AB103" s="30"/>
       <c r="AC103" s="30"/>
@@ -14157,7 +14159,7 @@
       <c r="AT103" s="30"/>
       <c r="AU103" s="31"/>
       <c r="AV103" s="29" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AW103" s="30"/>
       <c r="AX103" s="30"/>
@@ -14223,10 +14225,10 @@
     <row r="105" spans="1:53">
       <c r="A105" s="25"/>
       <c r="B105" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
@@ -14399,7 +14401,7 @@
       <c r="E108" s="30"/>
       <c r="F108" s="31"/>
       <c r="G108" s="29" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H108" s="30"/>
       <c r="I108" s="30"/>
@@ -14411,7 +14413,7 @@
       <c r="O108" s="30"/>
       <c r="P108" s="31"/>
       <c r="Q108" s="29" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="R108" s="30"/>
       <c r="S108" s="30"/>
@@ -14423,7 +14425,7 @@
       <c r="Y108" s="30"/>
       <c r="Z108" s="31"/>
       <c r="AA108" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AB108" s="30"/>
       <c r="AC108" s="30"/>
@@ -14446,7 +14448,7 @@
       <c r="AT108" s="30"/>
       <c r="AU108" s="31"/>
       <c r="AV108" s="29" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AW108" s="30"/>
       <c r="AX108" s="30"/>
@@ -14512,10 +14514,10 @@
     <row r="110" spans="1:53">
       <c r="A110" s="25"/>
       <c r="B110" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
@@ -14688,7 +14690,7 @@
       <c r="E113" s="30"/>
       <c r="F113" s="31"/>
       <c r="G113" s="29" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H113" s="30"/>
       <c r="I113" s="30"/>
@@ -14700,7 +14702,7 @@
       <c r="O113" s="30"/>
       <c r="P113" s="31"/>
       <c r="Q113" s="29" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="R113" s="30"/>
       <c r="S113" s="30"/>
@@ -14735,7 +14737,7 @@
       <c r="AT113" s="30"/>
       <c r="AU113" s="31"/>
       <c r="AV113" s="29" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AW113" s="30"/>
       <c r="AX113" s="30"/>
@@ -14804,7 +14806,7 @@
         <v>34</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
@@ -14862,13 +14864,13 @@
       <c r="B116" s="28"/>
       <c r="C116" s="21"/>
       <c r="D116" s="29" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E116" s="30"/>
       <c r="F116" s="30"/>
       <c r="G116" s="30"/>
       <c r="H116" s="29" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
@@ -14927,7 +14929,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="47" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I117" s="48"/>
       <c r="J117" s="48"/>
@@ -14986,7 +14988,7 @@
         <v>2</v>
       </c>
       <c r="H118" s="47" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I118" s="48"/>
       <c r="J118" s="48"/>
@@ -15045,7 +15047,7 @@
         <v>3</v>
       </c>
       <c r="H119" s="47" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I119" s="48"/>
       <c r="J119" s="48"/>
@@ -15104,7 +15106,7 @@
         <v>4</v>
       </c>
       <c r="H120" s="47" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="I120" s="48"/>
       <c r="J120" s="48"/>
@@ -15163,7 +15165,7 @@
         <v>5</v>
       </c>
       <c r="H121" s="47" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="I121" s="48"/>
       <c r="J121" s="48"/>
@@ -15222,7 +15224,7 @@
         <v>6</v>
       </c>
       <c r="H122" s="47" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="I122" s="48"/>
       <c r="J122" s="48"/>
@@ -15281,7 +15283,7 @@
         <v>7</v>
       </c>
       <c r="H123" s="47" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I123" s="48"/>
       <c r="J123" s="48"/>
@@ -15449,7 +15451,7 @@
       <c r="E126" s="30"/>
       <c r="F126" s="31"/>
       <c r="G126" s="29" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H126" s="30"/>
       <c r="I126" s="30"/>
@@ -15461,7 +15463,7 @@
       <c r="O126" s="30"/>
       <c r="P126" s="31"/>
       <c r="Q126" s="29" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="R126" s="30"/>
       <c r="S126" s="30"/>
@@ -15473,7 +15475,7 @@
       <c r="Y126" s="30"/>
       <c r="Z126" s="31"/>
       <c r="AA126" s="29" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AB126" s="30"/>
       <c r="AC126" s="30"/>
@@ -15496,7 +15498,7 @@
       <c r="AT126" s="30"/>
       <c r="AU126" s="31"/>
       <c r="AV126" s="29" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AW126" s="30"/>
       <c r="AX126" s="30"/>
@@ -15626,7 +15628,7 @@
         <v>60</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
@@ -15798,7 +15800,7 @@
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
       <c r="D132" s="21" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
@@ -15970,7 +15972,7 @@
       <c r="E135" s="30"/>
       <c r="F135" s="31"/>
       <c r="G135" s="29" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H135" s="30"/>
       <c r="I135" s="30"/>
@@ -15982,7 +15984,7 @@
       <c r="O135" s="30"/>
       <c r="P135" s="31"/>
       <c r="Q135" s="29" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="R135" s="30"/>
       <c r="S135" s="30"/>
@@ -15994,7 +15996,7 @@
       <c r="Y135" s="30"/>
       <c r="Z135" s="31"/>
       <c r="AA135" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AB135" s="30"/>
       <c r="AC135" s="30"/>
@@ -16017,7 +16019,7 @@
       <c r="AT135" s="30"/>
       <c r="AU135" s="31"/>
       <c r="AV135" s="29" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AW135" s="30"/>
       <c r="AX135" s="30"/>
@@ -16083,10 +16085,10 @@
     <row r="137" spans="1:53">
       <c r="A137" s="25"/>
       <c r="B137" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21"/>
@@ -16259,7 +16261,7 @@
       <c r="E140" s="30"/>
       <c r="F140" s="31"/>
       <c r="G140" s="29" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H140" s="30"/>
       <c r="I140" s="30"/>
@@ -16271,7 +16273,7 @@
       <c r="O140" s="30"/>
       <c r="P140" s="31"/>
       <c r="Q140" s="29" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="R140" s="30"/>
       <c r="S140" s="30"/>
@@ -16283,7 +16285,7 @@
       <c r="Y140" s="30"/>
       <c r="Z140" s="31"/>
       <c r="AA140" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AB140" s="30"/>
       <c r="AC140" s="30"/>
@@ -16306,7 +16308,7 @@
       <c r="AT140" s="30"/>
       <c r="AU140" s="31"/>
       <c r="AV140" s="29" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AW140" s="30"/>
       <c r="AX140" s="30"/>
@@ -16372,10 +16374,10 @@
     <row r="142" spans="1:53">
       <c r="A142" s="25"/>
       <c r="B142" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
@@ -16548,7 +16550,7 @@
       <c r="E145" s="30"/>
       <c r="F145" s="31"/>
       <c r="G145" s="29" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H145" s="30"/>
       <c r="I145" s="30"/>
@@ -16560,7 +16562,7 @@
       <c r="O145" s="30"/>
       <c r="P145" s="31"/>
       <c r="Q145" s="29" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="R145" s="30"/>
       <c r="S145" s="30"/>
@@ -16572,7 +16574,7 @@
       <c r="Y145" s="30"/>
       <c r="Z145" s="31"/>
       <c r="AA145" s="29" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AB145" s="30"/>
       <c r="AC145" s="30"/>
@@ -16595,7 +16597,7 @@
       <c r="AT145" s="30"/>
       <c r="AU145" s="31"/>
       <c r="AV145" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AW145" s="30"/>
       <c r="AX145" s="30"/>
@@ -16664,7 +16666,7 @@
         <v>34</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
@@ -16790,7 +16792,7 @@
         <v>56</v>
       </c>
       <c r="I149" s="21" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J149" s="21"/>
       <c r="K149" s="21"/>
@@ -16900,7 +16902,7 @@
         <v>78</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
@@ -17071,7 +17073,7 @@
       <c r="E154" s="30"/>
       <c r="F154" s="31"/>
       <c r="G154" s="29" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H154" s="30"/>
       <c r="I154" s="30"/>
@@ -17083,7 +17085,7 @@
       <c r="O154" s="30"/>
       <c r="P154" s="31"/>
       <c r="Q154" s="29" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="R154" s="30"/>
       <c r="S154" s="30"/>
@@ -17095,7 +17097,7 @@
       <c r="Y154" s="30"/>
       <c r="Z154" s="31"/>
       <c r="AA154" s="29" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AB154" s="30"/>
       <c r="AC154" s="30"/>
@@ -17118,7 +17120,7 @@
       <c r="AT154" s="30"/>
       <c r="AU154" s="31"/>
       <c r="AV154" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AW154" s="30"/>
       <c r="AX154" s="30"/>
@@ -17184,10 +17186,10 @@
     <row r="156" spans="1:53">
       <c r="A156" s="25"/>
       <c r="B156" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
@@ -17245,13 +17247,13 @@
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
       <c r="D157" s="21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G157" s="21"/>
       <c r="H157" s="21"/>
@@ -17421,7 +17423,7 @@
       <c r="E160" s="30"/>
       <c r="F160" s="31"/>
       <c r="G160" s="29" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H160" s="30"/>
       <c r="I160" s="30"/>
@@ -17433,7 +17435,7 @@
       <c r="O160" s="30"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="29" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="R160" s="30"/>
       <c r="S160" s="30"/>
@@ -17445,7 +17447,7 @@
       <c r="Y160" s="30"/>
       <c r="Z160" s="31"/>
       <c r="AA160" s="29" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AB160" s="30"/>
       <c r="AC160" s="30"/>
@@ -17468,7 +17470,7 @@
       <c r="AT160" s="30"/>
       <c r="AU160" s="31"/>
       <c r="AV160" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AW160" s="30"/>
       <c r="AX160" s="30"/>
@@ -17534,10 +17536,10 @@
     <row r="162" spans="1:53">
       <c r="A162" s="25"/>
       <c r="B162" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
@@ -17595,13 +17597,13 @@
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
       <c r="D163" s="21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G163" s="21"/>
       <c r="H163" s="21"/>
@@ -17771,7 +17773,7 @@
       <c r="E166" s="30"/>
       <c r="F166" s="31"/>
       <c r="G166" s="29" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
@@ -17783,7 +17785,7 @@
       <c r="O166" s="30"/>
       <c r="P166" s="31"/>
       <c r="Q166" s="29" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="R166" s="30"/>
       <c r="S166" s="30"/>
@@ -17795,7 +17797,7 @@
       <c r="Y166" s="30"/>
       <c r="Z166" s="31"/>
       <c r="AA166" s="29" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AB166" s="30"/>
       <c r="AC166" s="30"/>
@@ -17818,7 +17820,7 @@
       <c r="AT166" s="30"/>
       <c r="AU166" s="31"/>
       <c r="AV166" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AW166" s="30"/>
       <c r="AX166" s="30"/>
@@ -17884,10 +17886,10 @@
     <row r="168" spans="1:53">
       <c r="A168" s="25"/>
       <c r="B168" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D168" s="21"/>
       <c r="E168" s="21"/>
@@ -17945,13 +17947,13 @@
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
       <c r="D169" s="21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E169" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F169" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="F169" s="21" t="s">
-        <v>202</v>
       </c>
       <c r="G169" s="21"/>
       <c r="H169" s="21"/>
@@ -18121,7 +18123,7 @@
       <c r="E172" s="30"/>
       <c r="F172" s="31"/>
       <c r="G172" s="29" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H172" s="30"/>
       <c r="I172" s="30"/>
@@ -18133,7 +18135,7 @@
       <c r="O172" s="30"/>
       <c r="P172" s="31"/>
       <c r="Q172" s="29" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="R172" s="30"/>
       <c r="S172" s="30"/>
@@ -18145,7 +18147,7 @@
       <c r="Y172" s="30"/>
       <c r="Z172" s="31"/>
       <c r="AA172" s="29" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AB172" s="30"/>
       <c r="AC172" s="30"/>
@@ -18168,7 +18170,7 @@
       <c r="AT172" s="30"/>
       <c r="AU172" s="31"/>
       <c r="AV172" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AW172" s="30"/>
       <c r="AX172" s="30"/>
@@ -18237,7 +18239,7 @@
         <v>34</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D174" s="21"/>
       <c r="E174" s="21"/>
@@ -18363,7 +18365,7 @@
         <v>56</v>
       </c>
       <c r="I176" s="21" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J176" s="21"/>
       <c r="K176" s="21"/>
@@ -18473,7 +18475,7 @@
         <v>78</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
@@ -18644,7 +18646,7 @@
       <c r="E181" s="30"/>
       <c r="F181" s="31"/>
       <c r="G181" s="29" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H181" s="30"/>
       <c r="I181" s="30"/>
@@ -18656,7 +18658,7 @@
       <c r="O181" s="30"/>
       <c r="P181" s="31"/>
       <c r="Q181" s="29" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="R181" s="30"/>
       <c r="S181" s="30"/>
@@ -18668,7 +18670,7 @@
       <c r="Y181" s="30"/>
       <c r="Z181" s="31"/>
       <c r="AA181" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AB181" s="30"/>
       <c r="AC181" s="30"/>
@@ -18691,7 +18693,7 @@
       <c r="AT181" s="30"/>
       <c r="AU181" s="31"/>
       <c r="AV181" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AW181" s="30"/>
       <c r="AX181" s="30"/>
@@ -18757,10 +18759,10 @@
     <row r="183" spans="1:53">
       <c r="A183" s="25"/>
       <c r="B183" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D183" s="21"/>
       <c r="E183" s="21"/>
@@ -18818,10 +18820,10 @@
       <c r="B184" s="21"/>
       <c r="C184" s="21"/>
       <c r="D184" s="21" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
@@ -18877,10 +18879,10 @@
       <c r="B185" s="21"/>
       <c r="C185" s="21"/>
       <c r="D185" s="21" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
@@ -18936,10 +18938,10 @@
       <c r="B186" s="21"/>
       <c r="C186" s="21"/>
       <c r="D186" s="21" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
@@ -18995,10 +18997,10 @@
       <c r="B187" s="21"/>
       <c r="C187" s="21"/>
       <c r="D187" s="21" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
@@ -19162,10 +19164,10 @@
     <row r="190" spans="1:53">
       <c r="A190" s="25"/>
       <c r="B190" s="28" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D190" s="21"/>
       <c r="E190" s="21"/>
@@ -19223,23 +19225,23 @@
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
       <c r="D191" s="21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F191" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G191" s="21" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H191" s="21"/>
       <c r="I191" s="21"/>
       <c r="J191" s="21"/>
       <c r="K191" s="21"/>
       <c r="L191" s="21" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M191" s="28" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="N191" s="21"/>
       <c r="O191" s="21"/>
@@ -19289,17 +19291,17 @@
       <c r="D192" s="21"/>
       <c r="F192" s="21"/>
       <c r="G192" s="21" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H192" s="21"/>
       <c r="I192" s="21"/>
       <c r="J192" s="21"/>
       <c r="K192" s="21"/>
       <c r="L192" s="21" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M192" s="21" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="N192" s="21"/>
       <c r="O192" s="21"/>
@@ -19349,17 +19351,17 @@
       <c r="D193" s="21"/>
       <c r="F193" s="21"/>
       <c r="G193" s="21" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
       <c r="J193" s="21"/>
       <c r="K193" s="21"/>
       <c r="L193" s="21" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M193" s="21" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="N193" s="21"/>
       <c r="O193" s="21"/>
@@ -19416,10 +19418,10 @@
       <c r="J194" s="21"/>
       <c r="K194" s="21"/>
       <c r="L194" s="21" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M194" s="21" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="N194" s="21"/>
       <c r="O194" s="21"/>
@@ -19469,17 +19471,17 @@
       <c r="D195" s="21"/>
       <c r="F195" s="21"/>
       <c r="G195" s="21" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H195" s="21"/>
       <c r="I195" s="21"/>
       <c r="J195" s="21"/>
       <c r="K195" s="21"/>
       <c r="L195" s="21" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M195" s="21" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="N195" s="21"/>
       <c r="O195" s="21"/>
@@ -19529,17 +19531,17 @@
       <c r="D196" s="21"/>
       <c r="F196" s="21"/>
       <c r="G196" s="21" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H196" s="21"/>
       <c r="I196" s="21"/>
       <c r="J196" s="21"/>
       <c r="K196" s="21"/>
       <c r="L196" s="21" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M196" s="21" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="N196" s="21"/>
       <c r="O196" s="21"/>
@@ -19586,7 +19588,7 @@
       <c r="A197" s="25"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
@@ -19644,14 +19646,14 @@
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
       <c r="D198" s="21" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E198" s="21"/>
       <c r="F198" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G198" s="21" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H198" s="21"/>
       <c r="I198" s="21"/>
@@ -19705,24 +19707,24 @@
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
       <c r="D199" s="21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E199" s="21"/>
       <c r="F199" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G199" s="21" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H199" s="21"/>
       <c r="I199" s="21"/>
       <c r="J199" s="21"/>
       <c r="K199" s="21"/>
       <c r="L199" s="21" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M199" s="21" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="N199" s="21"/>
       <c r="O199" s="21"/>
@@ -19780,10 +19782,10 @@
       <c r="J200" s="21"/>
       <c r="K200" s="21"/>
       <c r="L200" s="21" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M200" s="21" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="N200" s="21"/>
       <c r="O200" s="21"/>
@@ -19834,17 +19836,17 @@
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
       <c r="G201" s="21" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H201" s="21"/>
       <c r="I201" s="21"/>
       <c r="J201" s="21"/>
       <c r="K201" s="21"/>
       <c r="L201" s="21" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M201" s="21" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="N201" s="21"/>
       <c r="O201" s="21"/>
@@ -19895,17 +19897,17 @@
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
       <c r="G202" s="21" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H202" s="21"/>
       <c r="I202" s="21"/>
       <c r="J202" s="21"/>
       <c r="K202" s="21"/>
       <c r="L202" s="21" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M202" s="21" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="N202" s="21"/>
       <c r="O202" s="21"/>
@@ -20068,7 +20070,7 @@
       <c r="E205" s="30"/>
       <c r="F205" s="31"/>
       <c r="G205" s="29" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H205" s="30"/>
       <c r="I205" s="30"/>
@@ -20080,7 +20082,7 @@
       <c r="O205" s="30"/>
       <c r="P205" s="31"/>
       <c r="Q205" s="29" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="R205" s="30"/>
       <c r="S205" s="30"/>
@@ -20092,7 +20094,7 @@
       <c r="Y205" s="30"/>
       <c r="Z205" s="31"/>
       <c r="AA205" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AB205" s="30"/>
       <c r="AC205" s="30"/>
@@ -20115,7 +20117,7 @@
       <c r="AT205" s="30"/>
       <c r="AU205" s="31"/>
       <c r="AV205" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AW205" s="30"/>
       <c r="AX205" s="30"/>
@@ -20181,10 +20183,10 @@
     <row r="207" spans="1:53">
       <c r="A207" s="25"/>
       <c r="B207" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D207" s="21"/>
       <c r="E207" s="21"/>
@@ -20242,14 +20244,14 @@
       <c r="B208" s="21"/>
       <c r="C208" s="21"/>
       <c r="D208" s="21" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E208" s="21"/>
       <c r="F208" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G208" s="21" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H208" s="21"/>
       <c r="I208" s="21"/>
@@ -20410,7 +20412,7 @@
     </row>
     <row r="211" spans="1:53">
       <c r="A211" s="29" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B211" s="30"/>
       <c r="C211" s="30"/>
@@ -20428,7 +20430,7 @@
       <c r="O211" s="30"/>
       <c r="P211" s="31"/>
       <c r="Q211" s="29" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="R211" s="30"/>
       <c r="S211" s="30"/>
@@ -20530,7 +20532,7 @@
         <v>34</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D213" s="21"/>
       <c r="E213" s="21"/>
@@ -20588,7 +20590,7 @@
       <c r="B214" s="21"/>
       <c r="C214" s="21"/>
       <c r="D214" s="21" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
@@ -20702,7 +20704,7 @@
       <c r="B216" s="21"/>
       <c r="C216" s="21"/>
       <c r="D216" s="21" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
@@ -20990,7 +20992,7 @@
         <v>34</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="21"/>
